--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_1_25.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_1_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1520375.529454449</v>
+        <v>1465413.823048103</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>401174.2584760588</v>
+        <v>401174.2584760584</v>
       </c>
     </row>
     <row r="8">
@@ -752,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>3.516869431124803</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -782,13 +782,13 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>3.097658594934726</v>
+      </c>
+      <c r="S3" t="n">
         <v>3.516869431124803</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>3.516869431124803</v>
@@ -803,10 +803,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>3.097658594934726</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>3.516869431124803</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -983,19 +983,19 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>3.097658594934726</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>3.516869431124803</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>3.516869431124803</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>3.516869431124803</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,19 +1022,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>3.097658594934726</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>3.516869431124803</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>3.516869431124803</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>3.516869431124803</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1144,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>3.376898027766035</v>
+        <v>3.199249640013477</v>
       </c>
       <c r="G8" t="n">
         <v>3.516869431124803</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>0.1776483877525582</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1214,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>3.516869431124803</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>3.516869431124803</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1256,22 +1256,22 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>3.097658594934726</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>3.516869431124803</v>
       </c>
       <c r="S9" t="n">
-        <v>3.097658594934726</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>3.516869431124803</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>3.516869431124803</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>3.516869431124803</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1378,19 +1378,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>219.1395914672605</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F11" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>417.4006896726905</v>
+        <v>360.0377811991912</v>
       </c>
       <c r="H11" t="n">
-        <v>332.2997728652675</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>185.5911946793677</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>104.5842356695385</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1426,16 +1426,16 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.0355428294531</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1451,16 +1451,16 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F12" t="n">
-        <v>47.91242794156859</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>147.9754831086837</v>
@@ -1469,7 +1469,7 @@
         <v>118.3074313936392</v>
       </c>
       <c r="I12" t="n">
-        <v>80.88269664813839</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1499,19 +1499,19 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>177.3046992815431</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>211.8708247664476</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>237.1774694070239</v>
       </c>
       <c r="V12" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>240.1015311123561</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1548,10 +1548,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>6.44301091817098</v>
       </c>
       <c r="J13" t="n">
-        <v>49.09324089333307</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1572,10 +1572,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>73.22331673875185</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>174.4371603754213</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1621,10 +1621,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>337.8111365862619</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>332.2997728652675</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1654,28 +1654,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>104.5842356695385</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>194.7603440885288</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>216.1732982980278</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>250.0355428294531</v>
       </c>
       <c r="V14" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>237.885065673671</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="15">
@@ -1685,7 +1685,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>87.81103547321345</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1697,13 +1697,13 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>105.921080899483</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>118.3074313936392</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>86.96680931411738</v>
       </c>
       <c r="S15" t="n">
         <v>177.3046992815431</v>
@@ -1754,7 +1754,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y15" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1785,10 +1785,10 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>145.4619076189266</v>
       </c>
       <c r="J16" t="n">
-        <v>49.09324089333296</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1809,16 +1809,16 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>73.22331673875185</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>174.4371603754213</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>151.2918103885797</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1852,16 +1852,16 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>417.4006896726905</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>153.1531010155953</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1891,28 +1891,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>104.5842356695385</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>216.1732982980278</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>250.0355428294531</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>337.8964638257669</v>
       </c>
       <c r="X17" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>72.86269546749355</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="18">
@@ -1922,10 +1922,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>159.1723150765785</v>
@@ -1943,7 +1943,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>33.24282033738054</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1973,16 +1973,16 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>177.3046992815431</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>237.1774694070239</v>
       </c>
       <c r="V18" t="n">
-        <v>100.7209778852921</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W18" t="n">
         <v>266.7045835770116</v>
@@ -1991,7 +1991,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y18" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>122.3165576320848</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>6.44301091817098</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>174.4371603754213</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2064,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2083,10 +2083,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2095,7 +2095,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>238.0093698572105</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>194.7603440885288</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.1732982980278</v>
       </c>
       <c r="U20" t="n">
         <v>250.0355428294531</v>
@@ -2143,13 +2143,13 @@
         <v>320.879783609152</v>
       </c>
       <c r="W20" t="n">
-        <v>59.46376299783697</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2165,19 +2165,19 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D21" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>158.8234391199283</v>
+        <v>37.54184544363549</v>
       </c>
       <c r="G21" t="n">
         <v>147.9754831086837</v>
       </c>
       <c r="H21" t="n">
-        <v>118.3074313936392</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>80.88269664813839</v>
@@ -2216,16 +2216,16 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>237.1774694070239</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X21" t="n">
-        <v>150.6060554371957</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y21" t="n">
         <v>223.3842861340256</v>
@@ -2250,19 +2250,19 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>8.132332248944941</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>3.416636100827831</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>145.4619076189266</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>74.65185754899974</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2283,7 +2283,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>73.22331673875186</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>288.6213857585613</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2317,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2365,28 +2365,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>104.5842356695385</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>194.7603440885288</v>
       </c>
       <c r="T23" t="n">
-        <v>142.4814430933977</v>
+        <v>198.9841895300707</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>250.0355428294531</v>
       </c>
       <c r="V23" t="n">
         <v>320.879783609152</v>
       </c>
       <c r="W23" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y23" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2399,13 +2399,13 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C24" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>171.8275718397997</v>
+        <v>88.36524035709083</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2444,19 +2444,19 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>86.9668093141174</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>211.8708247664476</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>237.1774694070239</v>
       </c>
       <c r="V24" t="n">
-        <v>172.5776076911028</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W24" t="n">
         <v>266.7045835770116</v>
@@ -2490,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>136.6622275835408</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>160.0914904239654</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>8.132332248944961</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>288.6213857585613</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>1.291341486965741</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2569,13 +2569,13 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G26" t="n">
-        <v>417.4006896726905</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>332.2997728652675</v>
       </c>
       <c r="I26" t="n">
-        <v>132.3637229775703</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.1732982980278</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2633,19 +2633,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>90.20483912863168</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2681,10 +2681,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>86.9668093141174</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>177.3046992815431</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>211.8708247664476</v>
@@ -2693,16 +2693,16 @@
         <v>237.1774694070239</v>
       </c>
       <c r="V27" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y27" t="n">
-        <v>36.71036076875536</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="28">
@@ -2718,13 +2718,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>145.1826502507107</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>12.6441855383488</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>138.9268822184467</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>6.443010918170826</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2775,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,13 +2791,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2806,13 +2806,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>415.630784087539</v>
       </c>
       <c r="H29" t="n">
-        <v>332.2997728652675</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>162.6085109460308</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>194.7603440885288</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>216.1732982980278</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>250.0355428294531</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2870,28 +2870,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D30" t="n">
-        <v>129.7729475057629</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>158.8234391199283</v>
+        <v>117.6057983883181</v>
       </c>
       <c r="G30" t="n">
-        <v>147.9754831086837</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>118.3074313936392</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>80.88269664813839</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2921,22 +2921,22 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>177.3046992815431</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>211.8708247664476</v>
       </c>
       <c r="U30" t="n">
         <v>237.1774694070239</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X30" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>223.3842861340256</v>
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>128.6977485970992</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2964,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>136.6622275835408</v>
+        <v>168.0559694104069</v>
       </c>
       <c r="H31" t="n">
-        <v>160.0914904239654</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3028,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3043,7 +3043,7 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G32" t="n">
-        <v>417.4006896726905</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3082,19 +3082,19 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>149.2560990106458</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>163.2438345334762</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3110,22 +3110,22 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D33" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>112.7179135991726</v>
       </c>
       <c r="F33" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>45.58453256089054</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>177.3046992815431</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -3167,7 +3167,7 @@
         <v>237.1774694070239</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W33" t="n">
         <v>266.7045835770116</v>
@@ -3198,10 +3198,10 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>128.6977485970992</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G34" t="n">
-        <v>168.0559694104069</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>157.8268357890595</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3274,16 +3274,16 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>417.4006896726905</v>
       </c>
       <c r="H35" t="n">
-        <v>332.2997728652675</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.48650333428729</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>216.1732982980278</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.0355428294531</v>
       </c>
       <c r="V35" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>337.8964638257669</v>
+        <v>209.2936844335315</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="36">
@@ -3344,28 +3344,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E36" t="n">
-        <v>121.2081693437208</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F36" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
-        <v>147.9754831086837</v>
+        <v>114.6675142342215</v>
       </c>
       <c r="H36" t="n">
-        <v>118.3074313936392</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>80.88269664813839</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3395,25 +3395,25 @@
         <v>86.9668093141174</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>177.3046992815431</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>211.8708247664476</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y36" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>8.132332248944813</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>8.132332248944849</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>288.6213857585613</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>185.1751350140936</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3514,16 +3514,16 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>417.4006896726905</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>332.2997728652675</v>
       </c>
       <c r="I38" t="n">
-        <v>185.5911946793677</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,16 +3550,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>104.5842356695385</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>194.7603440885288</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>250.0355428294531</v>
+        <v>149.5323075214598</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>359.7827142947061</v>
       </c>
       <c r="Y38" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3584,13 +3584,13 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>159.1723150765785</v>
+        <v>135.9387323808137</v>
       </c>
       <c r="E39" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>158.8234391199283</v>
@@ -3599,7 +3599,7 @@
         <v>147.9754831086837</v>
       </c>
       <c r="H39" t="n">
-        <v>118.3074313936392</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>80.88269664813839</v>
@@ -3638,19 +3638,19 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>237.1774694070239</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W39" t="n">
-        <v>20.25995031184197</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X39" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>168.0559694104069</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3714,13 +3714,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>128.6977485970991</v>
       </c>
       <c r="U40" t="n">
-        <v>288.6213857585613</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>8.132332248944834</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3739,19 +3739,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>337.7721596422273</v>
+        <v>89.0279582997394</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>51.67676542960368</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3796,7 +3796,7 @@
         <v>216.1732982980278</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.0355428294531</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3824,10 +3824,10 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>35.2094803082618</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F42" t="n">
         <v>158.8234391199283</v>
@@ -3839,7 +3839,7 @@
         <v>118.3074313936392</v>
       </c>
       <c r="I42" t="n">
-        <v>80.88269664813839</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3872,22 +3872,22 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>211.8708247664476</v>
       </c>
       <c r="U42" t="n">
         <v>237.1774694070239</v>
       </c>
       <c r="V42" t="n">
-        <v>240.6489209154022</v>
+        <v>126.143644647578</v>
       </c>
       <c r="W42" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X42" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="43">
@@ -3909,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>79.61244519333766</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3957,16 +3957,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>245.1090151844499</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>51.64470282305629</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>217.1412728141684</v>
       </c>
     </row>
     <row r="44">
@@ -3976,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3991,13 +3991,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>417.4006896726905</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>332.2997728652675</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>185.5911946793677</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>5.238667333996957</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4036,16 +4036,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>174.5802998415128</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4064,16 +4064,16 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0.8442261590963388</v>
+        <v>57.32229557197554</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>147.9754831086837</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>118.3074313936392</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4103,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>86.9668093141174</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>177.3046992815431</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>211.8708247664476</v>
@@ -4121,7 +4121,7 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X45" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>223.3842861340256</v>
@@ -4149,10 +4149,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>168.0559694104069</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>128.6977485970992</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>75.74723767418692</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.0064803333194</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2813495544899843</v>
+        <v>3.833742919262513</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2813495544899843</v>
+        <v>3.833742919262513</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2813495544899843</v>
+        <v>3.833742919262513</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2813495544899843</v>
+        <v>3.833742919262513</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2813495544899843</v>
+        <v>3.833742919262513</v>
       </c>
       <c r="G3" t="n">
         <v>0.2813495544899843</v>
@@ -4415,46 +4415,46 @@
         <v>3.45619840956866</v>
       </c>
       <c r="L3" t="n">
-        <v>3.622375514058549</v>
+        <v>3.45619840956866</v>
       </c>
       <c r="M3" t="n">
-        <v>7.104076250872104</v>
+        <v>6.937899146382215</v>
       </c>
       <c r="N3" t="n">
-        <v>7.104076250872104</v>
+        <v>10.41959988319577</v>
       </c>
       <c r="O3" t="n">
-        <v>10.58577698768566</v>
+        <v>13.90130062000932</v>
       </c>
       <c r="P3" t="n">
         <v>14.06747772449921</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.51508435972668</v>
+        <v>14.06747772449921</v>
       </c>
       <c r="R3" t="n">
-        <v>10.51508435972668</v>
+        <v>10.93852964880757</v>
       </c>
       <c r="S3" t="n">
-        <v>10.51508435972668</v>
+        <v>7.386136284035041</v>
       </c>
       <c r="T3" t="n">
-        <v>6.962690994954155</v>
+        <v>3.833742919262513</v>
       </c>
       <c r="U3" t="n">
-        <v>6.962690994954155</v>
+        <v>3.833742919262513</v>
       </c>
       <c r="V3" t="n">
-        <v>6.962690994954155</v>
+        <v>3.833742919262513</v>
       </c>
       <c r="W3" t="n">
-        <v>6.962690994954155</v>
+        <v>3.833742919262513</v>
       </c>
       <c r="X3" t="n">
         <v>3.833742919262513</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.2813495544899843</v>
+        <v>3.833742919262513</v>
       </c>
     </row>
     <row r="4">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.2813495544899843</v>
+        <v>14.06747772449921</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2813495544899843</v>
+        <v>14.06747772449921</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2813495544899843</v>
+        <v>14.06747772449921</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2813495544899843</v>
+        <v>10.93852964880757</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2813495544899843</v>
+        <v>10.93852964880757</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2813495544899843</v>
+        <v>7.386136284035041</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2813495544899843</v>
+        <v>3.833742919262513</v>
       </c>
       <c r="I6" t="n">
         <v>0.2813495544899843</v>
@@ -4649,13 +4649,13 @@
         <v>0.2813495544899843</v>
       </c>
       <c r="K6" t="n">
-        <v>3.45619840956866</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="L6" t="n">
+        <v>0.2813495544899843</v>
+      </c>
+      <c r="M6" t="n">
         <v>3.622375514058549</v>
-      </c>
-      <c r="M6" t="n">
-        <v>7.104076250872104</v>
       </c>
       <c r="N6" t="n">
         <v>7.104076250872104</v>
@@ -4670,28 +4670,28 @@
         <v>14.06747772449921</v>
       </c>
       <c r="R6" t="n">
-        <v>10.93852964880757</v>
+        <v>14.06747772449921</v>
       </c>
       <c r="S6" t="n">
-        <v>10.93852964880757</v>
+        <v>14.06747772449921</v>
       </c>
       <c r="T6" t="n">
-        <v>7.386136284035041</v>
+        <v>14.06747772449921</v>
       </c>
       <c r="U6" t="n">
-        <v>3.833742919262513</v>
+        <v>14.06747772449921</v>
       </c>
       <c r="V6" t="n">
-        <v>0.2813495544899843</v>
+        <v>14.06747772449921</v>
       </c>
       <c r="W6" t="n">
-        <v>0.2813495544899843</v>
+        <v>14.06747772449921</v>
       </c>
       <c r="X6" t="n">
-        <v>0.2813495544899843</v>
+        <v>14.06747772449921</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.2813495544899843</v>
+        <v>14.06747772449921</v>
       </c>
     </row>
     <row r="7">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.244751028117094</v>
+        <v>7.065308212205419</v>
       </c>
       <c r="C8" t="n">
-        <v>7.244751028117094</v>
+        <v>7.065308212205419</v>
       </c>
       <c r="D8" t="n">
-        <v>7.244751028117094</v>
+        <v>7.065308212205419</v>
       </c>
       <c r="E8" t="n">
-        <v>7.244751028117094</v>
+        <v>7.065308212205419</v>
       </c>
       <c r="F8" t="n">
         <v>3.833742919262513</v>
@@ -4831,25 +4831,25 @@
         <v>7.244751028117094</v>
       </c>
       <c r="S8" t="n">
-        <v>7.244751028117094</v>
+        <v>7.065308212205419</v>
       </c>
       <c r="T8" t="n">
-        <v>7.244751028117094</v>
+        <v>7.065308212205419</v>
       </c>
       <c r="U8" t="n">
-        <v>7.244751028117094</v>
+        <v>7.065308212205419</v>
       </c>
       <c r="V8" t="n">
-        <v>7.244751028117094</v>
+        <v>7.065308212205419</v>
       </c>
       <c r="W8" t="n">
-        <v>7.244751028117094</v>
+        <v>7.065308212205419</v>
       </c>
       <c r="X8" t="n">
-        <v>7.244751028117094</v>
+        <v>7.065308212205419</v>
       </c>
       <c r="Y8" t="n">
-        <v>7.244751028117094</v>
+        <v>7.065308212205419</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.2813495544899843</v>
+        <v>7.386136284035041</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2813495544899843</v>
+        <v>3.833742919262513</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2813495544899843</v>
+        <v>3.833742919262513</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2813495544899843</v>
+        <v>3.833742919262513</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2813495544899843</v>
+        <v>3.833742919262513</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2813495544899843</v>
+        <v>3.833742919262513</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2813495544899843</v>
+        <v>3.833742919262513</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2813495544899843</v>
+        <v>3.833742919262513</v>
       </c>
       <c r="J9" t="n">
         <v>0.2813495544899843</v>
@@ -4889,13 +4889,13 @@
         <v>3.45619840956866</v>
       </c>
       <c r="L9" t="n">
-        <v>3.622375514058549</v>
+        <v>6.937899146382215</v>
       </c>
       <c r="M9" t="n">
-        <v>3.622375514058549</v>
+        <v>10.41959988319577</v>
       </c>
       <c r="N9" t="n">
-        <v>7.104076250872104</v>
+        <v>10.58577698768566</v>
       </c>
       <c r="O9" t="n">
         <v>10.58577698768566</v>
@@ -4904,31 +4904,31 @@
         <v>14.06747772449921</v>
       </c>
       <c r="Q9" t="n">
-        <v>14.06747772449921</v>
+        <v>10.93852964880757</v>
       </c>
       <c r="R9" t="n">
-        <v>14.06747772449921</v>
+        <v>7.386136284035041</v>
       </c>
       <c r="S9" t="n">
-        <v>10.93852964880757</v>
+        <v>7.386136284035041</v>
       </c>
       <c r="T9" t="n">
         <v>7.386136284035041</v>
       </c>
       <c r="U9" t="n">
-        <v>3.833742919262513</v>
+        <v>7.386136284035041</v>
       </c>
       <c r="V9" t="n">
-        <v>0.2813495544899843</v>
+        <v>7.386136284035041</v>
       </c>
       <c r="W9" t="n">
-        <v>0.2813495544899843</v>
+        <v>7.386136284035041</v>
       </c>
       <c r="X9" t="n">
-        <v>0.2813495544899843</v>
+        <v>7.386136284035041</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.2813495544899843</v>
+        <v>7.386136284035041</v>
       </c>
     </row>
     <row r="10">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1607.629543432272</v>
+        <v>773.1711544789669</v>
       </c>
       <c r="C11" t="n">
-        <v>1607.629543432272</v>
+        <v>773.1711544789669</v>
       </c>
       <c r="D11" t="n">
-        <v>1607.629543432272</v>
+        <v>773.1711544789669</v>
       </c>
       <c r="E11" t="n">
-        <v>1386.27642073807</v>
+        <v>397.9399301742839</v>
       </c>
       <c r="F11" t="n">
-        <v>979.0044514047228</v>
+        <v>397.9399301742839</v>
       </c>
       <c r="G11" t="n">
-        <v>557.3875931494798</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="H11" t="n">
-        <v>221.7312569219369</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="I11" t="n">
-        <v>34.2654037104543</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="J11" t="n">
-        <v>79.03615234277376</v>
+        <v>79.03615234277368</v>
       </c>
       <c r="K11" t="n">
-        <v>253.400964512489</v>
+        <v>253.4009645124889</v>
       </c>
       <c r="L11" t="n">
-        <v>524.6989948305063</v>
+        <v>524.698994830506</v>
       </c>
       <c r="M11" t="n">
-        <v>855.4462867779241</v>
+        <v>855.4462867779239</v>
       </c>
       <c r="N11" t="n">
-        <v>1184.702979677704</v>
+        <v>1184.702979677705</v>
       </c>
       <c r="O11" t="n">
         <v>1458.701379414585</v>
       </c>
       <c r="P11" t="n">
-        <v>1648.405101797588</v>
+        <v>1648.405101797589</v>
       </c>
       <c r="Q11" t="n">
-        <v>1713.270185522715</v>
+        <v>1713.270185522716</v>
       </c>
       <c r="R11" t="n">
-        <v>1607.629543432272</v>
+        <v>1713.270185522716</v>
       </c>
       <c r="S11" t="n">
-        <v>1607.629543432272</v>
+        <v>1713.270185522716</v>
       </c>
       <c r="T11" t="n">
-        <v>1607.629543432272</v>
+        <v>1713.270185522716</v>
       </c>
       <c r="U11" t="n">
-        <v>1607.629543432272</v>
+        <v>1460.709031149531</v>
       </c>
       <c r="V11" t="n">
-        <v>1607.629543432272</v>
+        <v>1136.588037604933</v>
       </c>
       <c r="W11" t="n">
-        <v>1607.629543432272</v>
+        <v>1136.588037604933</v>
       </c>
       <c r="X11" t="n">
-        <v>1607.629543432272</v>
+        <v>773.1711544789669</v>
       </c>
       <c r="Y11" t="n">
-        <v>1607.629543432272</v>
+        <v>773.1711544789669</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>433.33413006604</v>
+        <v>826.9936390064818</v>
       </c>
       <c r="C12" t="n">
-        <v>433.33413006604</v>
+        <v>637.5813647394455</v>
       </c>
       <c r="D12" t="n">
-        <v>433.33413006604</v>
+        <v>476.8012485004772</v>
       </c>
       <c r="E12" t="n">
-        <v>433.33413006604</v>
+        <v>303.2380446218916</v>
       </c>
       <c r="F12" t="n">
-        <v>384.9377382058697</v>
+        <v>303.2380446218916</v>
       </c>
       <c r="G12" t="n">
-        <v>235.4675532476033</v>
+        <v>153.7678596636252</v>
       </c>
       <c r="H12" t="n">
-        <v>115.9650972944325</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="I12" t="n">
-        <v>34.2654037104543</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="J12" t="n">
-        <v>54.25343639154484</v>
+        <v>54.25343639154485</v>
       </c>
       <c r="K12" t="n">
-        <v>215.1710339715871</v>
+        <v>111.1747061710124</v>
       </c>
       <c r="L12" t="n">
-        <v>303.4396872145412</v>
+        <v>393.8348169169499</v>
       </c>
       <c r="M12" t="n">
-        <v>678.0453684563939</v>
+        <v>768.4404981588028</v>
       </c>
       <c r="N12" t="n">
-        <v>1080.985636973605</v>
+        <v>1171.380766676014</v>
       </c>
       <c r="O12" t="n">
-        <v>1393.850179535331</v>
+        <v>1484.24530923774</v>
       </c>
       <c r="P12" t="n">
-        <v>1622.875055820307</v>
+        <v>1713.270185522716</v>
       </c>
       <c r="Q12" t="n">
-        <v>1713.270185522715</v>
+        <v>1713.270185522716</v>
       </c>
       <c r="R12" t="n">
-        <v>1713.270185522715</v>
+        <v>1713.270185522716</v>
       </c>
       <c r="S12" t="n">
-        <v>1534.174529682773</v>
+        <v>1713.270185522716</v>
       </c>
       <c r="T12" t="n">
-        <v>1320.16359557525</v>
+        <v>1713.270185522716</v>
       </c>
       <c r="U12" t="n">
-        <v>1080.590394154013</v>
+        <v>1473.696984101479</v>
       </c>
       <c r="V12" t="n">
-        <v>837.5106760576475</v>
+        <v>1473.696984101479</v>
       </c>
       <c r="W12" t="n">
-        <v>837.5106760576475</v>
+        <v>1231.170184998089</v>
       </c>
       <c r="X12" t="n">
-        <v>837.5106760576475</v>
+        <v>1231.170184998089</v>
       </c>
       <c r="Y12" t="n">
-        <v>611.8699829929751</v>
+        <v>1005.529491933417</v>
       </c>
     </row>
     <row r="13">
@@ -5175,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>83.85453592594226</v>
+        <v>40.77349554699066</v>
       </c>
       <c r="C13" t="n">
-        <v>83.85453592594226</v>
+        <v>40.77349554699066</v>
       </c>
       <c r="D13" t="n">
-        <v>83.85453592594226</v>
+        <v>40.77349554699066</v>
       </c>
       <c r="E13" t="n">
-        <v>83.85453592594226</v>
+        <v>40.77349554699066</v>
       </c>
       <c r="F13" t="n">
-        <v>83.85453592594226</v>
+        <v>40.77349554699066</v>
       </c>
       <c r="G13" t="n">
-        <v>83.85453592594226</v>
+        <v>40.77349554699066</v>
       </c>
       <c r="H13" t="n">
-        <v>83.85453592594226</v>
+        <v>40.77349554699066</v>
       </c>
       <c r="I13" t="n">
-        <v>83.85453592594226</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="J13" t="n">
-        <v>34.2654037104543</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="K13" t="n">
-        <v>42.0712539087275</v>
+        <v>42.07125390872753</v>
       </c>
       <c r="L13" t="n">
         <v>105.1473006107386</v>
@@ -5220,31 +5220,31 @@
         <v>334.0166340210667</v>
       </c>
       <c r="Q13" t="n">
-        <v>260.0536878203072</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="R13" t="n">
-        <v>83.85453592594226</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="S13" t="n">
-        <v>83.85453592594226</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="T13" t="n">
-        <v>83.85453592594226</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="U13" t="n">
-        <v>83.85453592594226</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="V13" t="n">
-        <v>83.85453592594226</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="W13" t="n">
-        <v>83.85453592594226</v>
+        <v>40.77349554699066</v>
       </c>
       <c r="X13" t="n">
-        <v>83.85453592594226</v>
+        <v>40.77349554699066</v>
       </c>
       <c r="Y13" t="n">
-        <v>83.85453592594226</v>
+        <v>40.77349554699066</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>34.2654037104543</v>
+        <v>711.1451102271508</v>
       </c>
       <c r="C14" t="n">
-        <v>34.2654037104543</v>
+        <v>711.1451102271508</v>
       </c>
       <c r="D14" t="n">
-        <v>34.2654037104543</v>
+        <v>711.1451102271508</v>
       </c>
       <c r="E14" t="n">
-        <v>34.2654037104543</v>
+        <v>711.1451102271508</v>
       </c>
       <c r="F14" t="n">
-        <v>34.2654037104543</v>
+        <v>711.1451102271508</v>
       </c>
       <c r="G14" t="n">
-        <v>34.2654037104543</v>
+        <v>369.9217399379973</v>
       </c>
       <c r="H14" t="n">
-        <v>34.2654037104543</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="I14" t="n">
-        <v>34.2654037104543</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="J14" t="n">
         <v>79.03615234277368</v>
       </c>
       <c r="K14" t="n">
-        <v>253.4009645124891</v>
+        <v>253.4009645124889</v>
       </c>
       <c r="L14" t="n">
-        <v>524.6989948305061</v>
+        <v>524.698994830506</v>
       </c>
       <c r="M14" t="n">
         <v>855.4462867779239</v>
       </c>
       <c r="N14" t="n">
-        <v>1184.702979677704</v>
+        <v>1184.702979677705</v>
       </c>
       <c r="O14" t="n">
         <v>1458.701379414585</v>
       </c>
       <c r="P14" t="n">
-        <v>1648.405101797588</v>
+        <v>1648.405101797589</v>
       </c>
       <c r="Q14" t="n">
-        <v>1713.270185522715</v>
+        <v>1713.270185522716</v>
       </c>
       <c r="R14" t="n">
-        <v>1607.629543432272</v>
+        <v>1713.270185522716</v>
       </c>
       <c r="S14" t="n">
-        <v>1410.901923140829</v>
+        <v>1713.270185522716</v>
       </c>
       <c r="T14" t="n">
-        <v>1192.545056173124</v>
+        <v>1713.270185522716</v>
       </c>
       <c r="U14" t="n">
-        <v>939.9839017999391</v>
+        <v>1460.709031149531</v>
       </c>
       <c r="V14" t="n">
-        <v>615.862908255341</v>
+        <v>1460.709031149531</v>
       </c>
       <c r="W14" t="n">
-        <v>274.5533488353745</v>
+        <v>1460.709031149531</v>
       </c>
       <c r="X14" t="n">
-        <v>34.2654037104543</v>
+        <v>1097.292148023565</v>
       </c>
       <c r="Y14" t="n">
-        <v>34.2654037104543</v>
+        <v>711.1451102271508</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>34.2654037104543</v>
+        <v>260.7588504711838</v>
       </c>
       <c r="C15" t="n">
-        <v>34.2654037104543</v>
+        <v>260.7588504711838</v>
       </c>
       <c r="D15" t="n">
-        <v>34.2654037104543</v>
+        <v>260.7588504711838</v>
       </c>
       <c r="E15" t="n">
-        <v>34.2654037104543</v>
+        <v>260.7588504711838</v>
       </c>
       <c r="F15" t="n">
-        <v>34.2654037104543</v>
+        <v>153.7678596636252</v>
       </c>
       <c r="G15" t="n">
-        <v>34.2654037104543</v>
+        <v>153.7678596636252</v>
       </c>
       <c r="H15" t="n">
-        <v>34.2654037104543</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="I15" t="n">
-        <v>34.2654037104543</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="J15" t="n">
-        <v>54.25343639154482</v>
+        <v>54.25343639154485</v>
       </c>
       <c r="K15" t="n">
-        <v>215.171033971587</v>
+        <v>215.1710339715871</v>
       </c>
       <c r="L15" t="n">
-        <v>497.8311447175245</v>
+        <v>497.8311447175247</v>
       </c>
       <c r="M15" t="n">
-        <v>678.0453684563942</v>
+        <v>872.4368259593775</v>
       </c>
       <c r="N15" t="n">
         <v>1080.985636973605</v>
       </c>
       <c r="O15" t="n">
-        <v>1393.850179535331</v>
+        <v>1393.850179535332</v>
       </c>
       <c r="P15" t="n">
         <v>1622.875055820307</v>
       </c>
       <c r="Q15" t="n">
-        <v>1713.270185522715</v>
+        <v>1713.270185522716</v>
       </c>
       <c r="R15" t="n">
-        <v>1713.270185522715</v>
+        <v>1625.424923589264</v>
       </c>
       <c r="S15" t="n">
-        <v>1534.174529682773</v>
+        <v>1446.329267749321</v>
       </c>
       <c r="T15" t="n">
-        <v>1320.16359557525</v>
+        <v>1232.318333641798</v>
       </c>
       <c r="U15" t="n">
-        <v>1080.590394154013</v>
+        <v>992.745132220562</v>
       </c>
       <c r="V15" t="n">
-        <v>837.5106760576475</v>
+        <v>749.6654141241961</v>
       </c>
       <c r="W15" t="n">
-        <v>568.1121067879388</v>
+        <v>480.2668448544874</v>
       </c>
       <c r="X15" t="n">
-        <v>348.6041124046352</v>
+        <v>260.7588504711838</v>
       </c>
       <c r="Y15" t="n">
-        <v>122.9634193399629</v>
+        <v>260.7588504711838</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>83.85453592594214</v>
+        <v>181.1966235275519</v>
       </c>
       <c r="C16" t="n">
-        <v>83.85453592594214</v>
+        <v>181.1966235275519</v>
       </c>
       <c r="D16" t="n">
-        <v>83.85453592594214</v>
+        <v>181.1966235275519</v>
       </c>
       <c r="E16" t="n">
-        <v>83.85453592594214</v>
+        <v>181.1966235275519</v>
       </c>
       <c r="F16" t="n">
-        <v>83.85453592594214</v>
+        <v>181.1966235275519</v>
       </c>
       <c r="G16" t="n">
-        <v>83.85453592594214</v>
+        <v>181.1966235275519</v>
       </c>
       <c r="H16" t="n">
-        <v>83.85453592594214</v>
+        <v>181.1966235275519</v>
       </c>
       <c r="I16" t="n">
-        <v>83.85453592594214</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="J16" t="n">
-        <v>34.2654037104543</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="K16" t="n">
-        <v>42.07125390872748</v>
+        <v>42.07125390872753</v>
       </c>
       <c r="L16" t="n">
-        <v>105.1473006107385</v>
+        <v>105.1473006107386</v>
       </c>
       <c r="M16" t="n">
-        <v>180.2480375930231</v>
+        <v>180.2480375930232</v>
       </c>
       <c r="N16" t="n">
-        <v>261.5791831678328</v>
+        <v>261.5791831678329</v>
       </c>
       <c r="O16" t="n">
-        <v>314.7040135792698</v>
+        <v>314.7040135792699</v>
       </c>
       <c r="P16" t="n">
-        <v>334.0166340210666</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="Q16" t="n">
-        <v>260.0536878203071</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="R16" t="n">
-        <v>83.85453592594214</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="S16" t="n">
-        <v>83.85453592594214</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="T16" t="n">
-        <v>83.85453592594214</v>
+        <v>181.1966235275519</v>
       </c>
       <c r="U16" t="n">
-        <v>83.85453592594214</v>
+        <v>181.1966235275519</v>
       </c>
       <c r="V16" t="n">
-        <v>83.85453592594214</v>
+        <v>181.1966235275519</v>
       </c>
       <c r="W16" t="n">
-        <v>83.85453592594214</v>
+        <v>181.1966235275519</v>
       </c>
       <c r="X16" t="n">
-        <v>83.85453592594214</v>
+        <v>181.1966235275519</v>
       </c>
       <c r="Y16" t="n">
-        <v>83.85453592594214</v>
+        <v>181.1966235275519</v>
       </c>
     </row>
     <row r="17">
@@ -5491,40 +5491,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>34.2654037104543</v>
+        <v>985.8135883063351</v>
       </c>
       <c r="C17" t="n">
-        <v>34.2654037104543</v>
+        <v>985.8135883063351</v>
       </c>
       <c r="D17" t="n">
-        <v>34.2654037104543</v>
+        <v>985.8135883063351</v>
       </c>
       <c r="E17" t="n">
-        <v>34.2654037104543</v>
+        <v>610.5823640016521</v>
       </c>
       <c r="F17" t="n">
-        <v>34.2654037104543</v>
+        <v>610.5823640016521</v>
       </c>
       <c r="G17" t="n">
-        <v>34.2654037104543</v>
+        <v>188.9655057464091</v>
       </c>
       <c r="H17" t="n">
-        <v>34.2654037104543</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="I17" t="n">
-        <v>34.2654037104543</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="J17" t="n">
-        <v>79.03615234277413</v>
+        <v>79.03615234277379</v>
       </c>
       <c r="K17" t="n">
-        <v>253.4009645124893</v>
+        <v>253.4009645124891</v>
       </c>
       <c r="L17" t="n">
-        <v>524.6989948305063</v>
+        <v>524.6989948305065</v>
       </c>
       <c r="M17" t="n">
-        <v>855.4462867779243</v>
+        <v>855.4462867779242</v>
       </c>
       <c r="N17" t="n">
         <v>1184.702979677705</v>
@@ -5533,34 +5533,34 @@
         <v>1458.701379414585</v>
       </c>
       <c r="P17" t="n">
-        <v>1648.405101797588</v>
+        <v>1648.405101797589</v>
       </c>
       <c r="Q17" t="n">
-        <v>1713.270185522715</v>
+        <v>1713.270185522716</v>
       </c>
       <c r="R17" t="n">
-        <v>1607.629543432272</v>
+        <v>1713.270185522716</v>
       </c>
       <c r="S17" t="n">
-        <v>1607.629543432272</v>
+        <v>1713.270185522716</v>
       </c>
       <c r="T17" t="n">
-        <v>1389.272676464567</v>
+        <v>1713.270185522716</v>
       </c>
       <c r="U17" t="n">
-        <v>1136.711522091382</v>
+        <v>1713.270185522716</v>
       </c>
       <c r="V17" t="n">
-        <v>812.5905285467842</v>
+        <v>1713.270185522716</v>
       </c>
       <c r="W17" t="n">
-        <v>471.2809691268176</v>
+        <v>1371.960626102749</v>
       </c>
       <c r="X17" t="n">
-        <v>107.8640860008518</v>
+        <v>1371.960626102749</v>
       </c>
       <c r="Y17" t="n">
-        <v>34.2654037104543</v>
+        <v>985.8135883063351</v>
       </c>
     </row>
     <row r="18">
@@ -5570,40 +5570,40 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>718.4487143778003</v>
+        <v>562.6150465121585</v>
       </c>
       <c r="C18" t="n">
-        <v>529.036440110764</v>
+        <v>562.6150465121585</v>
       </c>
       <c r="D18" t="n">
-        <v>368.2563238717958</v>
+        <v>401.8349302731903</v>
       </c>
       <c r="E18" t="n">
-        <v>194.6931199932102</v>
+        <v>228.2717263946047</v>
       </c>
       <c r="F18" t="n">
-        <v>34.2654037104543</v>
+        <v>67.8440101118488</v>
       </c>
       <c r="G18" t="n">
-        <v>34.2654037104543</v>
+        <v>67.8440101118488</v>
       </c>
       <c r="H18" t="n">
-        <v>34.2654037104543</v>
+        <v>67.8440101118488</v>
       </c>
       <c r="I18" t="n">
-        <v>34.2654037104543</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="J18" t="n">
-        <v>54.25343639154481</v>
+        <v>54.25343639154485</v>
       </c>
       <c r="K18" t="n">
-        <v>54.25343639154481</v>
+        <v>54.25343639154485</v>
       </c>
       <c r="L18" t="n">
-        <v>336.9135471374823</v>
+        <v>336.9135471374824</v>
       </c>
       <c r="M18" t="n">
-        <v>711.5192283793351</v>
+        <v>711.5192283793353</v>
       </c>
       <c r="N18" t="n">
         <v>1114.459496896546</v>
@@ -5612,34 +5612,34 @@
         <v>1427.324039458272</v>
       </c>
       <c r="P18" t="n">
-        <v>1622.875055820307</v>
+        <v>1656.348915743248</v>
       </c>
       <c r="Q18" t="n">
-        <v>1713.270185522715</v>
+        <v>1713.270185522716</v>
       </c>
       <c r="R18" t="n">
-        <v>1713.270185522715</v>
+        <v>1713.270185522716</v>
       </c>
       <c r="S18" t="n">
-        <v>1713.270185522715</v>
+        <v>1534.174529682773</v>
       </c>
       <c r="T18" t="n">
-        <v>1713.270185522715</v>
+        <v>1534.174529682773</v>
       </c>
       <c r="U18" t="n">
-        <v>1713.270185522715</v>
+        <v>1294.601328261537</v>
       </c>
       <c r="V18" t="n">
-        <v>1611.53182402242</v>
+        <v>1051.521610165171</v>
       </c>
       <c r="W18" t="n">
-        <v>1342.133254752712</v>
+        <v>782.1230408954622</v>
       </c>
       <c r="X18" t="n">
-        <v>1122.625260369408</v>
+        <v>562.6150465121585</v>
       </c>
       <c r="Y18" t="n">
-        <v>896.9845673047355</v>
+        <v>562.6150465121585</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>34.2654037104543</v>
+        <v>40.77349554699066</v>
       </c>
       <c r="C19" t="n">
-        <v>34.2654037104543</v>
+        <v>40.77349554699066</v>
       </c>
       <c r="D19" t="n">
-        <v>34.2654037104543</v>
+        <v>40.77349554699066</v>
       </c>
       <c r="E19" t="n">
-        <v>34.2654037104543</v>
+        <v>40.77349554699066</v>
       </c>
       <c r="F19" t="n">
-        <v>34.2654037104543</v>
+        <v>40.77349554699066</v>
       </c>
       <c r="G19" t="n">
-        <v>34.2654037104543</v>
+        <v>40.77349554699066</v>
       </c>
       <c r="H19" t="n">
-        <v>34.2654037104543</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="I19" t="n">
-        <v>34.2654037104543</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="J19" t="n">
-        <v>34.2654037104543</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="K19" t="n">
-        <v>42.07125390872747</v>
+        <v>42.07125390872753</v>
       </c>
       <c r="L19" t="n">
-        <v>105.1473006107385</v>
+        <v>105.1473006107386</v>
       </c>
       <c r="M19" t="n">
-        <v>180.2480375930231</v>
+        <v>180.2480375930232</v>
       </c>
       <c r="N19" t="n">
-        <v>261.5791831678327</v>
+        <v>261.5791831678329</v>
       </c>
       <c r="O19" t="n">
-        <v>314.7040135792697</v>
+        <v>314.7040135792699</v>
       </c>
       <c r="P19" t="n">
-        <v>334.0166340210665</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="Q19" t="n">
-        <v>334.0166340210665</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="R19" t="n">
-        <v>157.8174821267015</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="S19" t="n">
-        <v>157.8174821267015</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="T19" t="n">
-        <v>157.8174821267015</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="U19" t="n">
-        <v>157.8174821267015</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="V19" t="n">
-        <v>157.8174821267015</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="W19" t="n">
-        <v>157.8174821267015</v>
+        <v>40.77349554699066</v>
       </c>
       <c r="X19" t="n">
-        <v>157.8174821267015</v>
+        <v>40.77349554699066</v>
       </c>
       <c r="Y19" t="n">
-        <v>157.8174821267015</v>
+        <v>40.77349554699066</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>388.0083303581097</v>
+        <v>615.862908255341</v>
       </c>
       <c r="C20" t="n">
-        <v>34.2654037104543</v>
+        <v>615.862908255341</v>
       </c>
       <c r="D20" t="n">
-        <v>34.2654037104543</v>
+        <v>274.6789086167276</v>
       </c>
       <c r="E20" t="n">
-        <v>34.2654037104543</v>
+        <v>274.6789086167276</v>
       </c>
       <c r="F20" t="n">
-        <v>34.2654037104543</v>
+        <v>274.6789086167276</v>
       </c>
       <c r="G20" t="n">
         <v>34.2654037104543</v>
@@ -5752,22 +5752,22 @@
         <v>34.2654037104543</v>
       </c>
       <c r="J20" t="n">
-        <v>79.03615234277368</v>
+        <v>79.03615234277376</v>
       </c>
       <c r="K20" t="n">
-        <v>253.4009645124887</v>
+        <v>253.400964512489</v>
       </c>
       <c r="L20" t="n">
-        <v>524.6989948305056</v>
+        <v>524.6989948305061</v>
       </c>
       <c r="M20" t="n">
-        <v>855.4462867779234</v>
+        <v>855.4462867779239</v>
       </c>
       <c r="N20" t="n">
         <v>1184.702979677704</v>
       </c>
       <c r="O20" t="n">
-        <v>1458.701379414584</v>
+        <v>1458.701379414585</v>
       </c>
       <c r="P20" t="n">
         <v>1648.405101797588</v>
@@ -5782,22 +5782,22 @@
         <v>1410.901923140829</v>
       </c>
       <c r="T20" t="n">
-        <v>1410.901923140829</v>
+        <v>1192.545056173124</v>
       </c>
       <c r="U20" t="n">
-        <v>1158.340768767644</v>
+        <v>939.9839017999391</v>
       </c>
       <c r="V20" t="n">
-        <v>834.219775223046</v>
+        <v>615.862908255341</v>
       </c>
       <c r="W20" t="n">
-        <v>774.1553681545238</v>
+        <v>615.862908255341</v>
       </c>
       <c r="X20" t="n">
-        <v>774.1553681545238</v>
+        <v>615.862908255341</v>
       </c>
       <c r="Y20" t="n">
-        <v>388.0083303581097</v>
+        <v>615.862908255341</v>
       </c>
     </row>
     <row r="21">
@@ -5807,22 +5807,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1069.121048873216</v>
+        <v>492.7686125234073</v>
       </c>
       <c r="C21" t="n">
-        <v>879.7087746061794</v>
+        <v>303.356338256371</v>
       </c>
       <c r="D21" t="n">
-        <v>718.9286583672111</v>
+        <v>303.356338256371</v>
       </c>
       <c r="E21" t="n">
-        <v>545.3654544886256</v>
+        <v>303.356338256371</v>
       </c>
       <c r="F21" t="n">
-        <v>384.9377382058697</v>
+        <v>265.4352822526988</v>
       </c>
       <c r="G21" t="n">
-        <v>235.4675532476033</v>
+        <v>115.9650972944325</v>
       </c>
       <c r="H21" t="n">
         <v>115.9650972944325</v>
@@ -5831,19 +5831,19 @@
         <v>34.2654037104543</v>
       </c>
       <c r="J21" t="n">
-        <v>34.2654037104543</v>
+        <v>54.25343639154484</v>
       </c>
       <c r="K21" t="n">
-        <v>195.1830012904965</v>
+        <v>111.1747061710121</v>
       </c>
       <c r="L21" t="n">
-        <v>477.843112036434</v>
+        <v>393.8348169169496</v>
       </c>
       <c r="M21" t="n">
-        <v>852.4487932782868</v>
+        <v>768.4404981588024</v>
       </c>
       <c r="N21" t="n">
-        <v>1171.380766676014</v>
+        <v>1171.380766676013</v>
       </c>
       <c r="O21" t="n">
         <v>1484.24530923774</v>
@@ -5864,19 +5864,19 @@
         <v>1625.424923589263</v>
       </c>
       <c r="U21" t="n">
-        <v>1625.424923589263</v>
+        <v>1385.851722168027</v>
       </c>
       <c r="V21" t="n">
-        <v>1625.424923589263</v>
+        <v>1385.851722168027</v>
       </c>
       <c r="W21" t="n">
-        <v>1625.424923589263</v>
+        <v>1116.453152898318</v>
       </c>
       <c r="X21" t="n">
-        <v>1473.297594864823</v>
+        <v>896.9451585150148</v>
       </c>
       <c r="Y21" t="n">
-        <v>1247.656901800151</v>
+        <v>671.3044654503424</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>260.0536878203071</v>
+        <v>42.4798807295906</v>
       </c>
       <c r="C22" t="n">
-        <v>260.0536878203071</v>
+        <v>42.4798807295906</v>
       </c>
       <c r="D22" t="n">
-        <v>260.0536878203071</v>
+        <v>42.4798807295906</v>
       </c>
       <c r="E22" t="n">
-        <v>260.0536878203071</v>
+        <v>42.4798807295906</v>
       </c>
       <c r="F22" t="n">
-        <v>260.0536878203071</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="G22" t="n">
-        <v>260.0536878203071</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="H22" t="n">
-        <v>256.6025402437133</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="I22" t="n">
-        <v>109.6713204266157</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="J22" t="n">
         <v>34.2654037104543</v>
       </c>
       <c r="K22" t="n">
-        <v>42.07125390872747</v>
+        <v>42.0712539087275</v>
       </c>
       <c r="L22" t="n">
-        <v>105.1473006107385</v>
+        <v>105.1473006107386</v>
       </c>
       <c r="M22" t="n">
-        <v>180.2480375930231</v>
+        <v>180.2480375930232</v>
       </c>
       <c r="N22" t="n">
-        <v>261.5791831678327</v>
+        <v>261.5791831678329</v>
       </c>
       <c r="O22" t="n">
-        <v>314.7040135792697</v>
+        <v>314.7040135792699</v>
       </c>
       <c r="P22" t="n">
-        <v>334.0166340210665</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="Q22" t="n">
-        <v>260.0536878203071</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="R22" t="n">
-        <v>260.0536878203071</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="S22" t="n">
-        <v>260.0536878203071</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="T22" t="n">
-        <v>260.0536878203071</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="U22" t="n">
-        <v>260.0536878203071</v>
+        <v>42.4798807295906</v>
       </c>
       <c r="V22" t="n">
-        <v>260.0536878203071</v>
+        <v>42.4798807295906</v>
       </c>
       <c r="W22" t="n">
-        <v>260.0536878203071</v>
+        <v>42.4798807295906</v>
       </c>
       <c r="X22" t="n">
-        <v>260.0536878203071</v>
+        <v>42.4798807295906</v>
       </c>
       <c r="Y22" t="n">
-        <v>260.0536878203071</v>
+        <v>42.4798807295906</v>
       </c>
     </row>
     <row r="23">
@@ -5965,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>34.2654037104543</v>
+        <v>375.4494033490677</v>
       </c>
       <c r="C23" t="n">
-        <v>34.2654037104543</v>
+        <v>375.4494033490677</v>
       </c>
       <c r="D23" t="n">
         <v>34.2654037104543</v>
@@ -5989,19 +5989,19 @@
         <v>34.2654037104543</v>
       </c>
       <c r="J23" t="n">
-        <v>79.0361523427739</v>
+        <v>79.03615234277368</v>
       </c>
       <c r="K23" t="n">
-        <v>253.4009645124892</v>
+        <v>253.400964512489</v>
       </c>
       <c r="L23" t="n">
-        <v>524.6989948305061</v>
+        <v>524.698994830506</v>
       </c>
       <c r="M23" t="n">
         <v>855.446286777924</v>
       </c>
       <c r="N23" t="n">
-        <v>1184.702979677704</v>
+        <v>1184.702979677705</v>
       </c>
       <c r="O23" t="n">
         <v>1458.701379414585</v>
@@ -6013,28 +6013,28 @@
         <v>1713.270185522715</v>
       </c>
       <c r="R23" t="n">
-        <v>1607.629543432272</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="S23" t="n">
-        <v>1607.629543432272</v>
+        <v>1516.542565231272</v>
       </c>
       <c r="T23" t="n">
-        <v>1463.708893842982</v>
+        <v>1315.548434392817</v>
       </c>
       <c r="U23" t="n">
-        <v>1463.708893842982</v>
+        <v>1062.987280019632</v>
       </c>
       <c r="V23" t="n">
-        <v>1139.587900298384</v>
+        <v>738.8662864750336</v>
       </c>
       <c r="W23" t="n">
-        <v>798.2783408784171</v>
+        <v>738.8662864750336</v>
       </c>
       <c r="X23" t="n">
-        <v>798.2783408784171</v>
+        <v>375.4494033490677</v>
       </c>
       <c r="Y23" t="n">
-        <v>412.1313030820031</v>
+        <v>375.4494033490677</v>
       </c>
     </row>
     <row r="24">
@@ -6044,13 +6044,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>558.0209980950444</v>
+        <v>123.5232222529703</v>
       </c>
       <c r="C24" t="n">
-        <v>368.6087238280081</v>
+        <v>123.5232222529703</v>
       </c>
       <c r="D24" t="n">
-        <v>207.8286075890398</v>
+        <v>123.5232222529703</v>
       </c>
       <c r="E24" t="n">
         <v>34.2654037104543</v>
@@ -6068,52 +6068,52 @@
         <v>34.2654037104543</v>
       </c>
       <c r="J24" t="n">
-        <v>54.25343639154482</v>
+        <v>54.25343639154484</v>
       </c>
       <c r="K24" t="n">
-        <v>215.171033971587</v>
+        <v>54.25343639154484</v>
       </c>
       <c r="L24" t="n">
-        <v>497.8311447175245</v>
+        <v>336.9135471374823</v>
       </c>
       <c r="M24" t="n">
-        <v>872.4368259593773</v>
+        <v>711.5192283793351</v>
       </c>
       <c r="N24" t="n">
-        <v>1275.377094476588</v>
+        <v>1114.459496896546</v>
       </c>
       <c r="O24" t="n">
-        <v>1484.24530923774</v>
+        <v>1427.324039458272</v>
       </c>
       <c r="P24" t="n">
-        <v>1713.270185522715</v>
+        <v>1622.875055820307</v>
       </c>
       <c r="Q24" t="n">
         <v>1713.270185522715</v>
       </c>
       <c r="R24" t="n">
-        <v>1625.424923589263</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="S24" t="n">
-        <v>1625.424923589263</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="T24" t="n">
-        <v>1625.424923589263</v>
+        <v>1499.259251415192</v>
       </c>
       <c r="U24" t="n">
-        <v>1625.424923589263</v>
+        <v>1259.686049993956</v>
       </c>
       <c r="V24" t="n">
-        <v>1451.104107739664</v>
+        <v>1016.60633189759</v>
       </c>
       <c r="W24" t="n">
-        <v>1181.705538469956</v>
+        <v>747.2077626278814</v>
       </c>
       <c r="X24" t="n">
-        <v>962.197544086652</v>
+        <v>527.6997682445777</v>
       </c>
       <c r="Y24" t="n">
-        <v>736.5568510219796</v>
+        <v>302.0590751799054</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1713.270185522715</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="C25" t="n">
-        <v>1713.270185522715</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="D25" t="n">
-        <v>1713.270185522715</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="E25" t="n">
-        <v>1713.270185522715</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="F25" t="n">
-        <v>1713.270185522715</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="G25" t="n">
-        <v>1575.227531397926</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="H25" t="n">
-        <v>1413.518955212103</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="I25" t="n">
-        <v>1413.518955212103</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="J25" t="n">
-        <v>1413.518955212103</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="K25" t="n">
-        <v>1421.324805410376</v>
+        <v>42.0712539087275</v>
       </c>
       <c r="L25" t="n">
-        <v>1484.400852112387</v>
+        <v>105.1473006107386</v>
       </c>
       <c r="M25" t="n">
-        <v>1559.501589094672</v>
+        <v>180.2480375930232</v>
       </c>
       <c r="N25" t="n">
-        <v>1640.832734669481</v>
+        <v>261.5791831678329</v>
       </c>
       <c r="O25" t="n">
-        <v>1693.957565080918</v>
+        <v>314.7040135792699</v>
       </c>
       <c r="P25" t="n">
-        <v>1713.270185522715</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="Q25" t="n">
-        <v>1713.270185522715</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="R25" t="n">
-        <v>1713.270185522715</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="S25" t="n">
-        <v>1713.270185522715</v>
+        <v>325.8021570019304</v>
       </c>
       <c r="T25" t="n">
-        <v>1713.270185522715</v>
+        <v>325.8021570019304</v>
       </c>
       <c r="U25" t="n">
-        <v>1713.270185522715</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="V25" t="n">
-        <v>1713.270185522715</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="W25" t="n">
-        <v>1713.270185522715</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="X25" t="n">
-        <v>1713.270185522715</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="Y25" t="n">
-        <v>1713.270185522715</v>
+        <v>34.2654037104543</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1713.270185522715</v>
+        <v>1493.608933214641</v>
       </c>
       <c r="C26" t="n">
-        <v>1713.270185522715</v>
+        <v>1493.608933214641</v>
       </c>
       <c r="D26" t="n">
-        <v>1372.086185884101</v>
+        <v>1152.424933576027</v>
       </c>
       <c r="E26" t="n">
-        <v>996.8549615794183</v>
+        <v>777.1937092713442</v>
       </c>
       <c r="F26" t="n">
-        <v>589.5829922460713</v>
+        <v>369.9217399379972</v>
       </c>
       <c r="G26" t="n">
-        <v>167.9661339908283</v>
+        <v>369.9217399379972</v>
       </c>
       <c r="H26" t="n">
-        <v>167.9661339908283</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="I26" t="n">
-        <v>34.26540371045429</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="J26" t="n">
-        <v>79.03615234277376</v>
+        <v>79.03615234277368</v>
       </c>
       <c r="K26" t="n">
-        <v>253.400964512489</v>
+        <v>253.4009645124889</v>
       </c>
       <c r="L26" t="n">
         <v>524.6989948305059</v>
@@ -6238,7 +6238,7 @@
         <v>855.4462867779237</v>
       </c>
       <c r="N26" t="n">
-        <v>1184.702979677704</v>
+        <v>1184.702979677705</v>
       </c>
       <c r="O26" t="n">
         <v>1458.701379414585</v>
@@ -6256,22 +6256,22 @@
         <v>1713.270185522715</v>
       </c>
       <c r="T26" t="n">
-        <v>1713.270185522715</v>
+        <v>1494.91331855501</v>
       </c>
       <c r="U26" t="n">
-        <v>1713.270185522715</v>
+        <v>1494.91331855501</v>
       </c>
       <c r="V26" t="n">
-        <v>1713.270185522715</v>
+        <v>1494.91331855501</v>
       </c>
       <c r="W26" t="n">
-        <v>1713.270185522715</v>
+        <v>1494.91331855501</v>
       </c>
       <c r="X26" t="n">
-        <v>1713.270185522715</v>
+        <v>1494.91331855501</v>
       </c>
       <c r="Y26" t="n">
-        <v>1713.270185522715</v>
+        <v>1494.91331855501</v>
       </c>
     </row>
     <row r="27">
@@ -6281,46 +6281,46 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>223.6776779774906</v>
+        <v>636.0015096190448</v>
       </c>
       <c r="C27" t="n">
-        <v>34.26540371045429</v>
+        <v>446.5892353520085</v>
       </c>
       <c r="D27" t="n">
-        <v>34.26540371045429</v>
+        <v>285.8091191130402</v>
       </c>
       <c r="E27" t="n">
-        <v>34.26540371045429</v>
+        <v>194.6931199932102</v>
       </c>
       <c r="F27" t="n">
-        <v>34.26540371045429</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="G27" t="n">
-        <v>34.26540371045429</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="H27" t="n">
-        <v>34.26540371045429</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="I27" t="n">
-        <v>34.26540371045429</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="J27" t="n">
-        <v>54.25343639154482</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="K27" t="n">
-        <v>215.171033971587</v>
+        <v>195.1830012904965</v>
       </c>
       <c r="L27" t="n">
-        <v>497.8311447175245</v>
+        <v>477.843112036434</v>
       </c>
       <c r="M27" t="n">
-        <v>872.4368259593773</v>
+        <v>852.4487932782868</v>
       </c>
       <c r="N27" t="n">
         <v>1171.380766676013</v>
       </c>
       <c r="O27" t="n">
-        <v>1484.245309237739</v>
+        <v>1484.24530923774</v>
       </c>
       <c r="P27" t="n">
         <v>1713.270185522715</v>
@@ -6329,28 +6329,28 @@
         <v>1713.270185522715</v>
       </c>
       <c r="R27" t="n">
-        <v>1625.424923589263</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="S27" t="n">
-        <v>1446.32926774932</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="T27" t="n">
-        <v>1232.318333641797</v>
+        <v>1499.259251415192</v>
       </c>
       <c r="U27" t="n">
-        <v>992.7451322205611</v>
+        <v>1259.686049993956</v>
       </c>
       <c r="V27" t="n">
-        <v>749.6654141241952</v>
+        <v>1259.686049993956</v>
       </c>
       <c r="W27" t="n">
-        <v>480.2668448544865</v>
+        <v>1259.686049993956</v>
       </c>
       <c r="X27" t="n">
-        <v>260.7588504711829</v>
+        <v>1040.178055610652</v>
       </c>
       <c r="Y27" t="n">
-        <v>223.6776779774906</v>
+        <v>814.5373625459799</v>
       </c>
     </row>
     <row r="28">
@@ -6360,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>334.0166340210666</v>
+        <v>40.77349554699049</v>
       </c>
       <c r="C28" t="n">
-        <v>334.0166340210666</v>
+        <v>40.77349554699049</v>
       </c>
       <c r="D28" t="n">
-        <v>187.367492353682</v>
+        <v>40.77349554699049</v>
       </c>
       <c r="E28" t="n">
-        <v>174.5955877694913</v>
+        <v>40.77349554699049</v>
       </c>
       <c r="F28" t="n">
-        <v>34.26540371045429</v>
+        <v>40.77349554699049</v>
       </c>
       <c r="G28" t="n">
-        <v>34.26540371045429</v>
+        <v>40.77349554699049</v>
       </c>
       <c r="H28" t="n">
-        <v>34.26540371045429</v>
+        <v>40.77349554699049</v>
       </c>
       <c r="I28" t="n">
-        <v>34.26540371045429</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="J28" t="n">
-        <v>34.26540371045429</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="K28" t="n">
-        <v>42.07125390872747</v>
+        <v>42.07125390872748</v>
       </c>
       <c r="L28" t="n">
         <v>105.1473006107385</v>
@@ -6423,13 +6423,13 @@
         <v>334.0166340210666</v>
       </c>
       <c r="W28" t="n">
-        <v>334.0166340210666</v>
+        <v>40.77349554699049</v>
       </c>
       <c r="X28" t="n">
-        <v>334.0166340210666</v>
+        <v>40.77349554699049</v>
       </c>
       <c r="Y28" t="n">
-        <v>334.0166340210666</v>
+        <v>40.77349554699049</v>
       </c>
     </row>
     <row r="29">
@@ -6439,43 +6439,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>534.1727610956042</v>
+        <v>795.2784781849657</v>
       </c>
       <c r="C29" t="n">
-        <v>534.1727610956042</v>
+        <v>795.2784781849657</v>
       </c>
       <c r="D29" t="n">
-        <v>534.1727610956042</v>
+        <v>454.0944785463523</v>
       </c>
       <c r="E29" t="n">
-        <v>534.1727610956042</v>
+        <v>454.0944785463523</v>
       </c>
       <c r="F29" t="n">
-        <v>534.1727610956042</v>
+        <v>454.0944785463523</v>
       </c>
       <c r="G29" t="n">
-        <v>534.1727610956042</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="H29" t="n">
-        <v>198.5164248680612</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="I29" t="n">
         <v>34.2654037104543</v>
       </c>
       <c r="J29" t="n">
-        <v>79.0361523427739</v>
+        <v>79.03615234277368</v>
       </c>
       <c r="K29" t="n">
-        <v>253.4009645124895</v>
+        <v>253.4009645124889</v>
       </c>
       <c r="L29" t="n">
-        <v>524.6989948305063</v>
+        <v>524.6989948305059</v>
       </c>
       <c r="M29" t="n">
-        <v>855.446286777924</v>
+        <v>855.4462867779237</v>
       </c>
       <c r="N29" t="n">
-        <v>1184.702979677704</v>
+        <v>1184.702979677705</v>
       </c>
       <c r="O29" t="n">
         <v>1458.701379414585</v>
@@ -6490,25 +6490,25 @@
         <v>1713.270185522715</v>
       </c>
       <c r="S29" t="n">
-        <v>1516.542565231272</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="T29" t="n">
-        <v>1298.185698263567</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="U29" t="n">
-        <v>1298.185698263567</v>
+        <v>1460.70903114953</v>
       </c>
       <c r="V29" t="n">
-        <v>1298.185698263567</v>
+        <v>1136.588037604932</v>
       </c>
       <c r="W29" t="n">
-        <v>1298.185698263567</v>
+        <v>795.2784781849657</v>
       </c>
       <c r="X29" t="n">
-        <v>1298.185698263567</v>
+        <v>795.2784781849657</v>
       </c>
       <c r="Y29" t="n">
-        <v>912.038660467153</v>
+        <v>795.2784781849657</v>
       </c>
     </row>
     <row r="30">
@@ -6518,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>850.0124437265677</v>
+        <v>342.4714137232665</v>
       </c>
       <c r="C30" t="n">
-        <v>850.0124437265677</v>
+        <v>153.0591394562302</v>
       </c>
       <c r="D30" t="n">
-        <v>718.9286583672111</v>
+        <v>153.0591394562302</v>
       </c>
       <c r="E30" t="n">
-        <v>545.3654544886256</v>
+        <v>153.0591394562302</v>
       </c>
       <c r="F30" t="n">
-        <v>384.9377382058697</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="G30" t="n">
-        <v>235.4675532476033</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="H30" t="n">
-        <v>115.9650972944325</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="I30" t="n">
         <v>34.2654037104543</v>
@@ -6545,10 +6545,10 @@
         <v>54.25343639154482</v>
       </c>
       <c r="K30" t="n">
-        <v>215.171033971587</v>
+        <v>111.1747061710121</v>
       </c>
       <c r="L30" t="n">
-        <v>497.8311447175245</v>
+        <v>393.8348169169496</v>
       </c>
       <c r="M30" t="n">
         <v>768.4404981588024</v>
@@ -6569,25 +6569,25 @@
         <v>1713.270185522715</v>
       </c>
       <c r="S30" t="n">
-        <v>1713.270185522715</v>
+        <v>1534.174529682773</v>
       </c>
       <c r="T30" t="n">
-        <v>1713.270185522715</v>
+        <v>1320.16359557525</v>
       </c>
       <c r="U30" t="n">
-        <v>1473.696984101479</v>
+        <v>1080.590394154013</v>
       </c>
       <c r="V30" t="n">
-        <v>1473.696984101479</v>
+        <v>837.5106760576475</v>
       </c>
       <c r="W30" t="n">
-        <v>1473.696984101479</v>
+        <v>568.1121067879388</v>
       </c>
       <c r="X30" t="n">
-        <v>1254.188989718175</v>
+        <v>568.1121067879388</v>
       </c>
       <c r="Y30" t="n">
-        <v>1028.548296653503</v>
+        <v>342.4714137232665</v>
       </c>
     </row>
     <row r="31">
@@ -6600,19 +6600,19 @@
         <v>334.0166340210666</v>
       </c>
       <c r="C31" t="n">
-        <v>334.0166340210666</v>
+        <v>204.0189081654108</v>
       </c>
       <c r="D31" t="n">
-        <v>334.0166340210666</v>
+        <v>204.0189081654108</v>
       </c>
       <c r="E31" t="n">
-        <v>334.0166340210666</v>
+        <v>204.0189081654108</v>
       </c>
       <c r="F31" t="n">
-        <v>334.0166340210666</v>
+        <v>204.0189081654108</v>
       </c>
       <c r="G31" t="n">
-        <v>195.9739798962779</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="H31" t="n">
         <v>34.2654037104543</v>
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1238.385455603727</v>
+        <v>1170.51152399614</v>
       </c>
       <c r="C32" t="n">
-        <v>1238.385455603727</v>
+        <v>816.7685973484843</v>
       </c>
       <c r="D32" t="n">
-        <v>1238.385455603727</v>
+        <v>816.7685973484843</v>
       </c>
       <c r="E32" t="n">
-        <v>863.1542312990442</v>
+        <v>441.5373730438013</v>
       </c>
       <c r="F32" t="n">
-        <v>455.8822619656972</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="G32" t="n">
         <v>34.2654037104543</v>
@@ -6700,19 +6700,19 @@
         <v>34.2654037104543</v>
       </c>
       <c r="J32" t="n">
-        <v>79.0361523427739</v>
+        <v>79.03615234277379</v>
       </c>
       <c r="K32" t="n">
-        <v>253.4009645124895</v>
+        <v>253.400964512489</v>
       </c>
       <c r="L32" t="n">
-        <v>524.6989948305063</v>
+        <v>524.698994830506</v>
       </c>
       <c r="M32" t="n">
-        <v>855.4462867779241</v>
+        <v>855.4462867779239</v>
       </c>
       <c r="N32" t="n">
-        <v>1184.702979677705</v>
+        <v>1184.702979677704</v>
       </c>
       <c r="O32" t="n">
         <v>1458.701379414585</v>
@@ -6730,22 +6730,22 @@
         <v>1713.270185522715</v>
       </c>
       <c r="T32" t="n">
-        <v>1562.506449148325</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="U32" t="n">
-        <v>1562.506449148325</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="V32" t="n">
-        <v>1238.385455603727</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="W32" t="n">
-        <v>1238.385455603727</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="X32" t="n">
-        <v>1238.385455603727</v>
+        <v>1548.377423367689</v>
       </c>
       <c r="Y32" t="n">
-        <v>1238.385455603727</v>
+        <v>1548.377423367689</v>
       </c>
     </row>
     <row r="33">
@@ -6755,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>401.5182186169164</v>
+        <v>337.5341563604932</v>
       </c>
       <c r="C33" t="n">
-        <v>401.5182186169164</v>
+        <v>148.1218820934569</v>
       </c>
       <c r="D33" t="n">
-        <v>240.7381023779481</v>
+        <v>148.1218820934569</v>
       </c>
       <c r="E33" t="n">
-        <v>240.7381023779481</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="F33" t="n">
-        <v>80.31038609519223</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="G33" t="n">
-        <v>80.31038609519223</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="H33" t="n">
         <v>34.2654037104543</v>
@@ -6782,22 +6782,22 @@
         <v>34.2654037104543</v>
       </c>
       <c r="K33" t="n">
-        <v>34.2654037104543</v>
+        <v>111.1747061710121</v>
       </c>
       <c r="L33" t="n">
-        <v>316.9255144563918</v>
+        <v>393.8348169169496</v>
       </c>
       <c r="M33" t="n">
-        <v>691.5311956982446</v>
+        <v>768.4404981588024</v>
       </c>
       <c r="N33" t="n">
-        <v>1094.471464215455</v>
+        <v>1171.380766676013</v>
       </c>
       <c r="O33" t="n">
-        <v>1407.336006777182</v>
+        <v>1484.24530923774</v>
       </c>
       <c r="P33" t="n">
-        <v>1636.360883062157</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="Q33" t="n">
         <v>1713.270185522715</v>
@@ -6806,25 +6806,25 @@
         <v>1713.270185522715</v>
       </c>
       <c r="S33" t="n">
-        <v>1534.174529682773</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="T33" t="n">
-        <v>1534.174529682773</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="U33" t="n">
-        <v>1294.601328261536</v>
+        <v>1473.696984101479</v>
       </c>
       <c r="V33" t="n">
-        <v>1294.601328261536</v>
+        <v>1230.617266005113</v>
       </c>
       <c r="W33" t="n">
-        <v>1025.202758991828</v>
+        <v>961.2186967354043</v>
       </c>
       <c r="X33" t="n">
-        <v>805.6947646085239</v>
+        <v>741.7107023521006</v>
       </c>
       <c r="Y33" t="n">
-        <v>580.0540715438515</v>
+        <v>516.0700092874283</v>
       </c>
     </row>
     <row r="34">
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>334.0166340210666</v>
+        <v>174.5955877694913</v>
       </c>
       <c r="C34" t="n">
-        <v>334.0166340210666</v>
+        <v>174.5955877694913</v>
       </c>
       <c r="D34" t="n">
-        <v>334.0166340210666</v>
+        <v>174.5955877694913</v>
       </c>
       <c r="E34" t="n">
-        <v>334.0166340210666</v>
+        <v>174.5955877694913</v>
       </c>
       <c r="F34" t="n">
-        <v>204.0189081654108</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="G34" t="n">
         <v>34.2654037104543</v>
@@ -6882,28 +6882,28 @@
         <v>334.0166340210666</v>
       </c>
       <c r="R34" t="n">
-        <v>334.0166340210666</v>
+        <v>174.5955877694913</v>
       </c>
       <c r="S34" t="n">
-        <v>334.0166340210666</v>
+        <v>174.5955877694913</v>
       </c>
       <c r="T34" t="n">
-        <v>334.0166340210666</v>
+        <v>174.5955877694913</v>
       </c>
       <c r="U34" t="n">
-        <v>334.0166340210666</v>
+        <v>174.5955877694913</v>
       </c>
       <c r="V34" t="n">
-        <v>334.0166340210666</v>
+        <v>174.5955877694913</v>
       </c>
       <c r="W34" t="n">
-        <v>334.0166340210666</v>
+        <v>174.5955877694913</v>
       </c>
       <c r="X34" t="n">
-        <v>334.0166340210666</v>
+        <v>174.5955877694913</v>
       </c>
       <c r="Y34" t="n">
-        <v>334.0166340210666</v>
+        <v>174.5955877694913</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>745.1529642426802</v>
+        <v>863.1542312990443</v>
       </c>
       <c r="C35" t="n">
-        <v>745.1529642426802</v>
+        <v>863.1542312990443</v>
       </c>
       <c r="D35" t="n">
-        <v>745.1529642426802</v>
+        <v>863.1542312990443</v>
       </c>
       <c r="E35" t="n">
-        <v>369.9217399379972</v>
+        <v>863.1542312990443</v>
       </c>
       <c r="F35" t="n">
-        <v>369.9217399379972</v>
+        <v>455.8822619656973</v>
       </c>
       <c r="G35" t="n">
-        <v>369.9217399379972</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="H35" t="n">
-        <v>34.26540371045429</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="I35" t="n">
-        <v>34.26540371045429</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="J35" t="n">
-        <v>79.03615234277376</v>
+        <v>79.03615234277436</v>
       </c>
       <c r="K35" t="n">
-        <v>253.400964512489</v>
+        <v>253.40096451249</v>
       </c>
       <c r="L35" t="n">
-        <v>524.6989948305059</v>
+        <v>524.6989948305069</v>
       </c>
       <c r="M35" t="n">
-        <v>855.4462867779238</v>
+        <v>855.4462867779248</v>
       </c>
       <c r="N35" t="n">
-        <v>1184.702979677704</v>
+        <v>1184.702979677705</v>
       </c>
       <c r="O35" t="n">
-        <v>1458.701379414585</v>
+        <v>1458.701379414586</v>
       </c>
       <c r="P35" t="n">
-        <v>1648.405101797588</v>
+        <v>1648.405101797589</v>
       </c>
       <c r="Q35" t="n">
-        <v>1713.270185522715</v>
+        <v>1713.270185522716</v>
       </c>
       <c r="R35" t="n">
-        <v>1713.270185522715</v>
+        <v>1713.270185522716</v>
       </c>
       <c r="S35" t="n">
-        <v>1628.94038417495</v>
+        <v>1713.270185522716</v>
       </c>
       <c r="T35" t="n">
-        <v>1410.583517207245</v>
+        <v>1713.270185522716</v>
       </c>
       <c r="U35" t="n">
-        <v>1410.583517207245</v>
+        <v>1460.709031149531</v>
       </c>
       <c r="V35" t="n">
-        <v>1086.462523662647</v>
+        <v>1460.709031149531</v>
       </c>
       <c r="W35" t="n">
-        <v>745.1529642426802</v>
+        <v>1249.301269095458</v>
       </c>
       <c r="X35" t="n">
-        <v>745.1529642426802</v>
+        <v>1249.301269095458</v>
       </c>
       <c r="Y35" t="n">
-        <v>745.1529642426802</v>
+        <v>863.1542312990443</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>667.7979487752123</v>
+        <v>834.2744863315595</v>
       </c>
       <c r="C36" t="n">
-        <v>667.7979487752123</v>
+        <v>644.8622120645232</v>
       </c>
       <c r="D36" t="n">
-        <v>667.7979487752123</v>
+        <v>484.0820958255549</v>
       </c>
       <c r="E36" t="n">
-        <v>545.3654544886256</v>
+        <v>310.5188919469693</v>
       </c>
       <c r="F36" t="n">
-        <v>384.9377382058697</v>
+        <v>150.0911756642134</v>
       </c>
       <c r="G36" t="n">
-        <v>235.4675532476033</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="H36" t="n">
-        <v>115.9650972944325</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="I36" t="n">
-        <v>34.26540371045429</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="J36" t="n">
-        <v>54.25343639154482</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="K36" t="n">
-        <v>215.171033971587</v>
+        <v>111.1747061710125</v>
       </c>
       <c r="L36" t="n">
-        <v>497.8311447175245</v>
+        <v>393.83481691695</v>
       </c>
       <c r="M36" t="n">
-        <v>872.4368259593773</v>
+        <v>768.4404981588028</v>
       </c>
       <c r="N36" t="n">
-        <v>1080.985636973605</v>
+        <v>1171.380766676014</v>
       </c>
       <c r="O36" t="n">
-        <v>1393.850179535331</v>
+        <v>1484.24530923774</v>
       </c>
       <c r="P36" t="n">
-        <v>1622.875055820306</v>
+        <v>1713.270185522716</v>
       </c>
       <c r="Q36" t="n">
-        <v>1713.270185522715</v>
+        <v>1713.270185522716</v>
       </c>
       <c r="R36" t="n">
-        <v>1625.424923589263</v>
+        <v>1625.424923589264</v>
       </c>
       <c r="S36" t="n">
-        <v>1625.424923589263</v>
+        <v>1446.329267749321</v>
       </c>
       <c r="T36" t="n">
-        <v>1625.424923589263</v>
+        <v>1232.318333641798</v>
       </c>
       <c r="U36" t="n">
-        <v>1625.424923589263</v>
+        <v>1232.318333641798</v>
       </c>
       <c r="V36" t="n">
-        <v>1382.345205492897</v>
+        <v>1232.318333641798</v>
       </c>
       <c r="W36" t="n">
-        <v>1112.946636223188</v>
+        <v>1232.318333641798</v>
       </c>
       <c r="X36" t="n">
-        <v>893.4386418398847</v>
+        <v>1012.810339258495</v>
       </c>
       <c r="Y36" t="n">
-        <v>667.7979487752123</v>
+        <v>1012.810339258495</v>
       </c>
     </row>
     <row r="37">
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>34.26540371045429</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="C37" t="n">
-        <v>34.26540371045429</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="D37" t="n">
-        <v>34.26540371045429</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="E37" t="n">
-        <v>34.26540371045429</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="F37" t="n">
-        <v>34.26540371045429</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="G37" t="n">
-        <v>34.26540371045429</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="H37" t="n">
-        <v>34.26540371045429</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="I37" t="n">
-        <v>34.26540371045429</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="J37" t="n">
-        <v>34.26540371045429</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="K37" t="n">
-        <v>42.07125390872747</v>
+        <v>42.0712539087275</v>
       </c>
       <c r="L37" t="n">
         <v>105.1473006107385</v>
@@ -7125,22 +7125,22 @@
         <v>334.0166340210666</v>
       </c>
       <c r="T37" t="n">
-        <v>325.8021570019304</v>
+        <v>334.0166340210666</v>
       </c>
       <c r="U37" t="n">
-        <v>34.26540371045429</v>
+        <v>42.47988072959049</v>
       </c>
       <c r="V37" t="n">
-        <v>34.26540371045429</v>
+        <v>42.47988072959049</v>
       </c>
       <c r="W37" t="n">
-        <v>34.26540371045429</v>
+        <v>42.47988072959049</v>
       </c>
       <c r="X37" t="n">
-        <v>34.26540371045429</v>
+        <v>42.47988072959049</v>
       </c>
       <c r="Y37" t="n">
-        <v>34.26540371045429</v>
+        <v>42.47988072959049</v>
       </c>
     </row>
     <row r="38">
@@ -7150,31 +7150,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>221.7312569219368</v>
+        <v>1198.810567526587</v>
       </c>
       <c r="C38" t="n">
-        <v>221.7312569219368</v>
+        <v>1198.810567526587</v>
       </c>
       <c r="D38" t="n">
-        <v>221.7312569219368</v>
+        <v>1198.810567526587</v>
       </c>
       <c r="E38" t="n">
-        <v>221.7312569219368</v>
+        <v>1198.810567526587</v>
       </c>
       <c r="F38" t="n">
-        <v>221.7312569219368</v>
+        <v>791.5385981932402</v>
       </c>
       <c r="G38" t="n">
-        <v>221.7312569219368</v>
+        <v>369.9217399379972</v>
       </c>
       <c r="H38" t="n">
-        <v>221.7312569219368</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="I38" t="n">
-        <v>34.26540371045429</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="J38" t="n">
-        <v>79.0361523427737</v>
+        <v>79.03615234277373</v>
       </c>
       <c r="K38" t="n">
         <v>253.4009645124889</v>
@@ -7189,37 +7189,37 @@
         <v>1184.702979677704</v>
       </c>
       <c r="O38" t="n">
-        <v>1458.701379414585</v>
+        <v>1458.701379414584</v>
       </c>
       <c r="P38" t="n">
         <v>1648.405101797588</v>
       </c>
       <c r="Q38" t="n">
-        <v>1713.270185522715</v>
+        <v>1713.270185522714</v>
       </c>
       <c r="R38" t="n">
-        <v>1607.629543432272</v>
+        <v>1713.270185522714</v>
       </c>
       <c r="S38" t="n">
-        <v>1410.901923140829</v>
+        <v>1713.270185522714</v>
       </c>
       <c r="T38" t="n">
-        <v>1410.901923140829</v>
+        <v>1713.270185522714</v>
       </c>
       <c r="U38" t="n">
-        <v>1158.340768767644</v>
+        <v>1562.227450652553</v>
       </c>
       <c r="V38" t="n">
-        <v>1158.340768767644</v>
+        <v>1562.227450652553</v>
       </c>
       <c r="W38" t="n">
-        <v>1158.340768767644</v>
+        <v>1562.227450652553</v>
       </c>
       <c r="X38" t="n">
-        <v>794.9238856416778</v>
+        <v>1198.810567526587</v>
       </c>
       <c r="Y38" t="n">
-        <v>408.7768478452637</v>
+        <v>1198.810567526587</v>
       </c>
     </row>
     <row r="39">
@@ -7229,49 +7229,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1069.121048873216</v>
+        <v>563.1748494251656</v>
       </c>
       <c r="C39" t="n">
-        <v>879.7087746061794</v>
+        <v>563.1748494251656</v>
       </c>
       <c r="D39" t="n">
-        <v>718.9286583672111</v>
+        <v>425.8629985354547</v>
       </c>
       <c r="E39" t="n">
-        <v>545.3654544886256</v>
+        <v>425.8629985354547</v>
       </c>
       <c r="F39" t="n">
-        <v>384.9377382058697</v>
+        <v>265.4352822526988</v>
       </c>
       <c r="G39" t="n">
-        <v>235.4675532476033</v>
+        <v>115.9650972944325</v>
       </c>
       <c r="H39" t="n">
         <v>115.9650972944325</v>
       </c>
       <c r="I39" t="n">
-        <v>34.26540371045429</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="J39" t="n">
-        <v>54.25343639154482</v>
+        <v>54.25343639154481</v>
       </c>
       <c r="K39" t="n">
-        <v>54.25343639154482</v>
+        <v>215.171033971587</v>
       </c>
       <c r="L39" t="n">
-        <v>336.9135471374823</v>
+        <v>497.8311447175245</v>
       </c>
       <c r="M39" t="n">
-        <v>711.5192283793351</v>
+        <v>872.4368259593773</v>
       </c>
       <c r="N39" t="n">
-        <v>1114.459496896546</v>
+        <v>1171.380766676014</v>
       </c>
       <c r="O39" t="n">
-        <v>1427.324039458272</v>
+        <v>1484.24530923774</v>
       </c>
       <c r="P39" t="n">
-        <v>1656.348915743248</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="Q39" t="n">
         <v>1713.270185522715</v>
@@ -7286,19 +7286,19 @@
         <v>1713.270185522715</v>
       </c>
       <c r="U39" t="n">
-        <v>1713.270185522715</v>
+        <v>1473.696984101479</v>
       </c>
       <c r="V39" t="n">
-        <v>1713.270185522715</v>
+        <v>1230.617266005113</v>
       </c>
       <c r="W39" t="n">
-        <v>1692.805589248127</v>
+        <v>961.2186967354043</v>
       </c>
       <c r="X39" t="n">
-        <v>1473.297594864823</v>
+        <v>741.7107023521006</v>
       </c>
       <c r="Y39" t="n">
-        <v>1247.656901800151</v>
+        <v>741.7107023521006</v>
       </c>
     </row>
     <row r="40">
@@ -7308,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>34.26540371045429</v>
+        <v>204.0189081654108</v>
       </c>
       <c r="C40" t="n">
-        <v>34.26540371045429</v>
+        <v>204.0189081654108</v>
       </c>
       <c r="D40" t="n">
-        <v>34.26540371045429</v>
+        <v>204.0189081654108</v>
       </c>
       <c r="E40" t="n">
-        <v>34.26540371045429</v>
+        <v>204.0189081654108</v>
       </c>
       <c r="F40" t="n">
-        <v>34.26540371045429</v>
+        <v>204.0189081654108</v>
       </c>
       <c r="G40" t="n">
-        <v>34.26540371045429</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="H40" t="n">
-        <v>34.26540371045429</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="I40" t="n">
-        <v>34.26540371045429</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="J40" t="n">
-        <v>34.26540371045429</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="K40" t="n">
         <v>42.07125390872747</v>
@@ -7344,40 +7344,40 @@
         <v>180.2480375930231</v>
       </c>
       <c r="N40" t="n">
-        <v>261.5791831678328</v>
+        <v>261.5791831678327</v>
       </c>
       <c r="O40" t="n">
-        <v>314.7040135792698</v>
+        <v>314.7040135792697</v>
       </c>
       <c r="P40" t="n">
-        <v>334.0166340210666</v>
+        <v>334.0166340210665</v>
       </c>
       <c r="Q40" t="n">
-        <v>334.0166340210666</v>
+        <v>334.0166340210665</v>
       </c>
       <c r="R40" t="n">
-        <v>334.0166340210666</v>
+        <v>334.0166340210665</v>
       </c>
       <c r="S40" t="n">
-        <v>334.0166340210666</v>
+        <v>334.0166340210665</v>
       </c>
       <c r="T40" t="n">
-        <v>334.0166340210666</v>
+        <v>204.0189081654108</v>
       </c>
       <c r="U40" t="n">
-        <v>42.47988072959049</v>
+        <v>204.0189081654108</v>
       </c>
       <c r="V40" t="n">
-        <v>34.26540371045429</v>
+        <v>204.0189081654108</v>
       </c>
       <c r="W40" t="n">
-        <v>34.26540371045429</v>
+        <v>204.0189081654108</v>
       </c>
       <c r="X40" t="n">
-        <v>34.26540371045429</v>
+        <v>204.0189081654108</v>
       </c>
       <c r="Y40" t="n">
-        <v>34.26540371045429</v>
+        <v>204.0189081654108</v>
       </c>
     </row>
     <row r="41">
@@ -7387,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1064.848666224266</v>
+        <v>1242.352164181825</v>
       </c>
       <c r="C41" t="n">
-        <v>711.1057395766106</v>
+        <v>1242.352164181825</v>
       </c>
       <c r="D41" t="n">
-        <v>369.9217399379972</v>
+        <v>1152.424933576027</v>
       </c>
       <c r="E41" t="n">
-        <v>369.9217399379972</v>
+        <v>777.1937092713442</v>
       </c>
       <c r="F41" t="n">
         <v>369.9217399379972</v>
@@ -7405,22 +7405,22 @@
         <v>369.9217399379972</v>
       </c>
       <c r="H41" t="n">
-        <v>34.26540371045431</v>
+        <v>34.26540371045429</v>
       </c>
       <c r="I41" t="n">
-        <v>34.26540371045431</v>
+        <v>34.26540371045429</v>
       </c>
       <c r="J41" t="n">
-        <v>79.03615234277385</v>
+        <v>79.03615234277402</v>
       </c>
       <c r="K41" t="n">
-        <v>253.4009645124891</v>
+        <v>253.4009645124892</v>
       </c>
       <c r="L41" t="n">
         <v>524.6989948305061</v>
       </c>
       <c r="M41" t="n">
-        <v>855.446286777924</v>
+        <v>855.4462867779239</v>
       </c>
       <c r="N41" t="n">
         <v>1184.702979677704</v>
@@ -7429,34 +7429,34 @@
         <v>1458.701379414585</v>
       </c>
       <c r="P41" t="n">
-        <v>1648.405101797589</v>
+        <v>1648.405101797588</v>
       </c>
       <c r="Q41" t="n">
         <v>1713.270185522715</v>
       </c>
       <c r="R41" t="n">
-        <v>1661.07143256352</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="S41" t="n">
-        <v>1661.07143256352</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="T41" t="n">
-        <v>1442.714565595815</v>
+        <v>1494.91331855501</v>
       </c>
       <c r="U41" t="n">
-        <v>1442.714565595815</v>
+        <v>1242.352164181825</v>
       </c>
       <c r="V41" t="n">
-        <v>1442.714565595815</v>
+        <v>1242.352164181825</v>
       </c>
       <c r="W41" t="n">
-        <v>1442.714565595815</v>
+        <v>1242.352164181825</v>
       </c>
       <c r="X41" t="n">
-        <v>1442.714565595815</v>
+        <v>1242.352164181825</v>
       </c>
       <c r="Y41" t="n">
-        <v>1442.714565595815</v>
+        <v>1242.352164181825</v>
       </c>
     </row>
     <row r="42">
@@ -7466,46 +7466,46 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>741.7107023521008</v>
+        <v>637.228964783233</v>
       </c>
       <c r="C42" t="n">
-        <v>741.7107023521008</v>
+        <v>637.228964783233</v>
       </c>
       <c r="D42" t="n">
-        <v>580.9305861131326</v>
+        <v>637.228964783233</v>
       </c>
       <c r="E42" t="n">
-        <v>545.3654544886257</v>
+        <v>463.6657609046475</v>
       </c>
       <c r="F42" t="n">
-        <v>384.9377382058698</v>
+        <v>303.2380446218916</v>
       </c>
       <c r="G42" t="n">
-        <v>235.4675532476034</v>
+        <v>153.7678596636252</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9650972944325</v>
+        <v>34.26540371045429</v>
       </c>
       <c r="I42" t="n">
-        <v>34.26540371045431</v>
+        <v>34.26540371045429</v>
       </c>
       <c r="J42" t="n">
-        <v>34.26540371045431</v>
+        <v>34.26540371045429</v>
       </c>
       <c r="K42" t="n">
-        <v>195.1830012904965</v>
+        <v>111.174706171012</v>
       </c>
       <c r="L42" t="n">
-        <v>477.843112036434</v>
+        <v>393.8348169169495</v>
       </c>
       <c r="M42" t="n">
-        <v>852.4487932782868</v>
+        <v>768.4404981588023</v>
       </c>
       <c r="N42" t="n">
-        <v>1171.380766676014</v>
+        <v>1171.380766676013</v>
       </c>
       <c r="O42" t="n">
-        <v>1484.24530923774</v>
+        <v>1484.245309237739</v>
       </c>
       <c r="P42" t="n">
         <v>1713.270185522715</v>
@@ -7520,22 +7520,22 @@
         <v>1713.270185522715</v>
       </c>
       <c r="T42" t="n">
-        <v>1713.270185522715</v>
+        <v>1499.259251415192</v>
       </c>
       <c r="U42" t="n">
-        <v>1473.696984101479</v>
+        <v>1259.686049993956</v>
       </c>
       <c r="V42" t="n">
-        <v>1230.617266005113</v>
+        <v>1132.268227117614</v>
       </c>
       <c r="W42" t="n">
-        <v>961.2186967354045</v>
+        <v>862.8696578479053</v>
       </c>
       <c r="X42" t="n">
-        <v>741.7107023521008</v>
+        <v>862.8696578479053</v>
       </c>
       <c r="Y42" t="n">
-        <v>741.7107023521008</v>
+        <v>637.228964783233</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1413.518955212103</v>
+        <v>114.682015016856</v>
       </c>
       <c r="C43" t="n">
-        <v>1413.518955212103</v>
+        <v>114.682015016856</v>
       </c>
       <c r="D43" t="n">
-        <v>1413.518955212103</v>
+        <v>114.682015016856</v>
       </c>
       <c r="E43" t="n">
-        <v>1413.518955212103</v>
+        <v>114.682015016856</v>
       </c>
       <c r="F43" t="n">
-        <v>1413.518955212103</v>
+        <v>34.26540371045429</v>
       </c>
       <c r="G43" t="n">
-        <v>1413.518955212103</v>
+        <v>34.26540371045429</v>
       </c>
       <c r="H43" t="n">
-        <v>1413.518955212103</v>
+        <v>34.26540371045429</v>
       </c>
       <c r="I43" t="n">
-        <v>1413.518955212103</v>
+        <v>34.26540371045429</v>
       </c>
       <c r="J43" t="n">
-        <v>1413.518955212103</v>
+        <v>34.26540371045429</v>
       </c>
       <c r="K43" t="n">
-        <v>1421.324805410376</v>
+        <v>42.07125390872746</v>
       </c>
       <c r="L43" t="n">
-        <v>1484.400852112387</v>
+        <v>105.1473006107385</v>
       </c>
       <c r="M43" t="n">
-        <v>1559.501589094672</v>
+        <v>180.2480375930231</v>
       </c>
       <c r="N43" t="n">
-        <v>1640.832734669482</v>
+        <v>261.5791831678327</v>
       </c>
       <c r="O43" t="n">
-        <v>1693.957565080919</v>
+        <v>314.7040135792697</v>
       </c>
       <c r="P43" t="n">
-        <v>1713.270185522715</v>
+        <v>334.0166340210665</v>
       </c>
       <c r="Q43" t="n">
-        <v>1713.270185522715</v>
+        <v>334.0166340210665</v>
       </c>
       <c r="R43" t="n">
-        <v>1713.270185522715</v>
+        <v>334.0166340210665</v>
       </c>
       <c r="S43" t="n">
-        <v>1713.270185522715</v>
+        <v>334.0166340210665</v>
       </c>
       <c r="T43" t="n">
-        <v>1713.270185522715</v>
+        <v>334.0166340210665</v>
       </c>
       <c r="U43" t="n">
-        <v>1713.270185522715</v>
+        <v>334.0166340210665</v>
       </c>
       <c r="V43" t="n">
-        <v>1465.685321700039</v>
+        <v>334.0166340210665</v>
       </c>
       <c r="W43" t="n">
-        <v>1413.518955212103</v>
+        <v>334.0166340210665</v>
       </c>
       <c r="X43" t="n">
-        <v>1413.518955212103</v>
+        <v>334.0166340210665</v>
       </c>
       <c r="Y43" t="n">
-        <v>1413.518955212103</v>
+        <v>114.682015016856</v>
       </c>
     </row>
     <row r="44">
@@ -7624,40 +7624,40 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>409.4966280151373</v>
+        <v>1707.978602357061</v>
       </c>
       <c r="C44" t="n">
-        <v>409.4966280151373</v>
+        <v>1354.235675709406</v>
       </c>
       <c r="D44" t="n">
-        <v>409.4966280151373</v>
+        <v>1354.235675709406</v>
       </c>
       <c r="E44" t="n">
-        <v>34.26540371045431</v>
+        <v>979.0044514047228</v>
       </c>
       <c r="F44" t="n">
-        <v>34.26540371045431</v>
+        <v>979.0044514047228</v>
       </c>
       <c r="G44" t="n">
-        <v>34.26540371045431</v>
+        <v>557.3875931494798</v>
       </c>
       <c r="H44" t="n">
-        <v>34.26540371045431</v>
+        <v>221.7312569219368</v>
       </c>
       <c r="I44" t="n">
-        <v>34.26540371045431</v>
+        <v>34.26540371045429</v>
       </c>
       <c r="J44" t="n">
-        <v>79.03615234277385</v>
+        <v>79.03615234277368</v>
       </c>
       <c r="K44" t="n">
-        <v>253.4009645124891</v>
+        <v>253.4009645124889</v>
       </c>
       <c r="L44" t="n">
-        <v>524.6989948305061</v>
+        <v>524.6989948305059</v>
       </c>
       <c r="M44" t="n">
-        <v>855.446286777924</v>
+        <v>855.4462867779235</v>
       </c>
       <c r="N44" t="n">
         <v>1184.702979677704</v>
@@ -7666,34 +7666,34 @@
         <v>1458.701379414585</v>
       </c>
       <c r="P44" t="n">
-        <v>1648.405101797589</v>
+        <v>1648.405101797588</v>
       </c>
       <c r="Q44" t="n">
         <v>1713.270185522715</v>
       </c>
       <c r="R44" t="n">
-        <v>1713.270185522715</v>
+        <v>1707.978602357061</v>
       </c>
       <c r="S44" t="n">
-        <v>1713.270185522715</v>
+        <v>1707.978602357061</v>
       </c>
       <c r="T44" t="n">
-        <v>1713.270185522715</v>
+        <v>1707.978602357061</v>
       </c>
       <c r="U44" t="n">
-        <v>1713.270185522715</v>
+        <v>1707.978602357061</v>
       </c>
       <c r="V44" t="n">
-        <v>1536.926448309066</v>
+        <v>1707.978602357061</v>
       </c>
       <c r="W44" t="n">
-        <v>1536.926448309066</v>
+        <v>1707.978602357061</v>
       </c>
       <c r="X44" t="n">
-        <v>1173.5095651831</v>
+        <v>1707.978602357061</v>
       </c>
       <c r="Y44" t="n">
-        <v>787.3625273866861</v>
+        <v>1707.978602357061</v>
       </c>
     </row>
     <row r="45">
@@ -7703,46 +7703,46 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>35.11815740651122</v>
+        <v>521.5670695632086</v>
       </c>
       <c r="C45" t="n">
-        <v>35.11815740651122</v>
+        <v>521.5670695632086</v>
       </c>
       <c r="D45" t="n">
-        <v>35.11815740651122</v>
+        <v>521.5670695632086</v>
       </c>
       <c r="E45" t="n">
-        <v>34.26540371045431</v>
+        <v>463.6657609046475</v>
       </c>
       <c r="F45" t="n">
-        <v>34.26540371045431</v>
+        <v>303.2380446218916</v>
       </c>
       <c r="G45" t="n">
-        <v>34.26540371045431</v>
+        <v>153.7678596636252</v>
       </c>
       <c r="H45" t="n">
-        <v>34.26540371045431</v>
+        <v>34.26540371045429</v>
       </c>
       <c r="I45" t="n">
-        <v>34.26540371045431</v>
+        <v>34.26540371045429</v>
       </c>
       <c r="J45" t="n">
-        <v>34.26540371045431</v>
+        <v>34.26540371045429</v>
       </c>
       <c r="K45" t="n">
-        <v>111.1747061710123</v>
+        <v>111.174706171012</v>
       </c>
       <c r="L45" t="n">
-        <v>393.8348169169498</v>
+        <v>393.8348169169495</v>
       </c>
       <c r="M45" t="n">
-        <v>768.4404981588026</v>
+        <v>768.4404981588023</v>
       </c>
       <c r="N45" t="n">
-        <v>1171.380766676014</v>
+        <v>1171.380766676013</v>
       </c>
       <c r="O45" t="n">
-        <v>1484.24530923774</v>
+        <v>1484.245309237739</v>
       </c>
       <c r="P45" t="n">
         <v>1713.270185522715</v>
@@ -7751,28 +7751,28 @@
         <v>1713.270185522715</v>
       </c>
       <c r="R45" t="n">
-        <v>1625.424923589263</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="S45" t="n">
-        <v>1446.329267749321</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="T45" t="n">
-        <v>1232.318333641798</v>
+        <v>1499.259251415192</v>
       </c>
       <c r="U45" t="n">
-        <v>992.7451322205618</v>
+        <v>1259.686049993956</v>
       </c>
       <c r="V45" t="n">
-        <v>749.6654141241959</v>
+        <v>1016.60633189759</v>
       </c>
       <c r="W45" t="n">
-        <v>480.2668448544872</v>
+        <v>747.2077626278809</v>
       </c>
       <c r="X45" t="n">
-        <v>260.7588504711836</v>
+        <v>747.2077626278809</v>
       </c>
       <c r="Y45" t="n">
-        <v>35.11815740651122</v>
+        <v>521.5670695632086</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>34.26540371045431</v>
+        <v>334.0166340210665</v>
       </c>
       <c r="C46" t="n">
-        <v>34.26540371045431</v>
+        <v>334.0166340210665</v>
       </c>
       <c r="D46" t="n">
-        <v>34.26540371045431</v>
+        <v>334.0166340210665</v>
       </c>
       <c r="E46" t="n">
-        <v>34.26540371045431</v>
+        <v>334.0166340210665</v>
       </c>
       <c r="F46" t="n">
-        <v>34.26540371045431</v>
+        <v>334.0166340210665</v>
       </c>
       <c r="G46" t="n">
-        <v>34.26540371045431</v>
+        <v>164.26312956611</v>
       </c>
       <c r="H46" t="n">
-        <v>34.26540371045431</v>
+        <v>34.26540371045429</v>
       </c>
       <c r="I46" t="n">
-        <v>34.26540371045431</v>
+        <v>34.26540371045429</v>
       </c>
       <c r="J46" t="n">
-        <v>34.26540371045431</v>
+        <v>34.26540371045429</v>
       </c>
       <c r="K46" t="n">
-        <v>42.0712539087275</v>
+        <v>42.07125390872746</v>
       </c>
       <c r="L46" t="n">
-        <v>105.1473006107386</v>
+        <v>105.1473006107385</v>
       </c>
       <c r="M46" t="n">
-        <v>180.2480375930232</v>
+        <v>180.2480375930231</v>
       </c>
       <c r="N46" t="n">
-        <v>261.5791831678329</v>
+        <v>261.5791831678327</v>
       </c>
       <c r="O46" t="n">
-        <v>314.7040135792699</v>
+        <v>314.7040135792697</v>
       </c>
       <c r="P46" t="n">
-        <v>334.0166340210667</v>
+        <v>334.0166340210665</v>
       </c>
       <c r="Q46" t="n">
-        <v>334.0166340210667</v>
+        <v>334.0166340210665</v>
       </c>
       <c r="R46" t="n">
-        <v>334.0166340210667</v>
+        <v>334.0166340210665</v>
       </c>
       <c r="S46" t="n">
-        <v>257.5042727340092</v>
+        <v>334.0166340210665</v>
       </c>
       <c r="T46" t="n">
-        <v>34.26540371045431</v>
+        <v>334.0166340210665</v>
       </c>
       <c r="U46" t="n">
-        <v>34.26540371045431</v>
+        <v>334.0166340210665</v>
       </c>
       <c r="V46" t="n">
-        <v>34.26540371045431</v>
+        <v>334.0166340210665</v>
       </c>
       <c r="W46" t="n">
-        <v>34.26540371045431</v>
+        <v>334.0166340210665</v>
       </c>
       <c r="X46" t="n">
-        <v>34.26540371045431</v>
+        <v>334.0166340210665</v>
       </c>
       <c r="Y46" t="n">
-        <v>34.26540371045431</v>
+        <v>334.0166340210665</v>
       </c>
     </row>
   </sheetData>
@@ -8063,19 +8063,19 @@
         <v>171.373473584151</v>
       </c>
       <c r="L3" t="n">
-        <v>169.2041989925474</v>
+        <v>169.0363433314465</v>
       </c>
       <c r="M3" t="n">
         <v>176.9203908159872</v>
       </c>
       <c r="N3" t="n">
-        <v>160.2368887416667</v>
+        <v>163.7537581727915</v>
       </c>
       <c r="O3" t="n">
         <v>177.484287653347</v>
       </c>
       <c r="P3" t="n">
-        <v>166.9656464766077</v>
+        <v>163.6166327065838</v>
       </c>
       <c r="Q3" t="n">
         <v>136.1300824528302</v>
@@ -8297,16 +8297,16 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K6" t="n">
-        <v>171.373473584151</v>
+        <v>168.166555548718</v>
       </c>
       <c r="L6" t="n">
-        <v>169.2041989925474</v>
+        <v>169.0363433314465</v>
       </c>
       <c r="M6" t="n">
-        <v>176.9203908159872</v>
+        <v>176.7782950813963</v>
       </c>
       <c r="N6" t="n">
-        <v>160.2368887416667</v>
+        <v>163.7537581727915</v>
       </c>
       <c r="O6" t="n">
         <v>177.484287653347</v>
@@ -8537,16 +8537,16 @@
         <v>171.373473584151</v>
       </c>
       <c r="L9" t="n">
-        <v>169.2041989925474</v>
+        <v>172.5532127625713</v>
       </c>
       <c r="M9" t="n">
-        <v>173.4035213848624</v>
+        <v>176.9203908159872</v>
       </c>
       <c r="N9" t="n">
-        <v>163.7537581727915</v>
+        <v>160.4047444027676</v>
       </c>
       <c r="O9" t="n">
-        <v>177.484287653347</v>
+        <v>173.9674182222222</v>
       </c>
       <c r="P9" t="n">
         <v>166.9656464766077</v>
@@ -8771,10 +8771,10 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K12" t="n">
-        <v>171.373473584151</v>
+        <v>66.32667782599466</v>
       </c>
       <c r="L12" t="n">
-        <v>43.9495361778704</v>
+        <v>240.3045437566416</v>
       </c>
       <c r="M12" t="n">
         <v>301.77688131</v>
@@ -8789,7 +8789,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q12" t="n">
-        <v>136.1300824528302</v>
+        <v>44.82187063221566</v>
       </c>
       <c r="R12" t="n">
         <v>29.49804203773589</v>
@@ -9014,10 +9014,10 @@
         <v>240.3045437566416</v>
       </c>
       <c r="M15" t="n">
-        <v>105.4218737312291</v>
+        <v>301.77688131</v>
       </c>
       <c r="N15" t="n">
-        <v>310.6138585746227</v>
+        <v>114.2588509958518</v>
       </c>
       <c r="O15" t="n">
         <v>255.2227828913207</v>
@@ -9245,7 +9245,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K18" t="n">
-        <v>8.83044572552248</v>
+        <v>8.830445725522424</v>
       </c>
       <c r="L18" t="n">
         <v>240.3045437566416</v>
@@ -9260,10 +9260,10 @@
         <v>255.2227828913207</v>
       </c>
       <c r="P18" t="n">
-        <v>172.5518943585369</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q18" t="n">
-        <v>136.1300824528302</v>
+        <v>102.318102732688</v>
       </c>
       <c r="R18" t="n">
         <v>29.49804203773589</v>
@@ -9479,10 +9479,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J21" t="n">
-        <v>61.5170588994834</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K21" t="n">
-        <v>171.373473584151</v>
+        <v>66.32667782599441</v>
       </c>
       <c r="L21" t="n">
         <v>240.3045437566416</v>
@@ -9491,7 +9491,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N21" t="n">
-        <v>225.7569948175681</v>
+        <v>310.6138585746227</v>
       </c>
       <c r="O21" t="n">
         <v>255.2227828913207</v>
@@ -9500,7 +9500,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q21" t="n">
-        <v>44.82187063221571</v>
+        <v>44.82187063221568</v>
       </c>
       <c r="R21" t="n">
         <v>29.49804203773589</v>
@@ -9719,7 +9719,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K24" t="n">
-        <v>171.373473584151</v>
+        <v>8.830445725522452</v>
       </c>
       <c r="L24" t="n">
         <v>240.3045437566416</v>
@@ -9731,13 +9731,13 @@
         <v>310.6138585746227</v>
       </c>
       <c r="O24" t="n">
-        <v>150.1759871331641</v>
+        <v>255.2227828913207</v>
       </c>
       <c r="P24" t="n">
-        <v>206.3638740786793</v>
+        <v>172.5518943585366</v>
       </c>
       <c r="Q24" t="n">
-        <v>44.82187063221569</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R24" t="n">
         <v>29.49804203773589</v>
@@ -9953,7 +9953,7 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J27" t="n">
-        <v>81.70699090058493</v>
+        <v>61.51705889948339</v>
       </c>
       <c r="K27" t="n">
         <v>171.373473584151</v>
@@ -9965,7 +9965,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N27" t="n">
-        <v>205.5670628164657</v>
+        <v>225.7569948175677</v>
       </c>
       <c r="O27" t="n">
         <v>255.2227828913207</v>
@@ -10193,13 +10193,13 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K30" t="n">
-        <v>171.373473584151</v>
+        <v>66.32667782599445</v>
       </c>
       <c r="L30" t="n">
         <v>240.3045437566416</v>
       </c>
       <c r="M30" t="n">
-        <v>196.7300855518434</v>
+        <v>301.77688131</v>
       </c>
       <c r="N30" t="n">
         <v>310.6138585746227</v>
@@ -10430,7 +10430,7 @@
         <v>61.51705889948339</v>
       </c>
       <c r="K33" t="n">
-        <v>8.83044572552248</v>
+        <v>86.51660982709599</v>
       </c>
       <c r="L33" t="n">
         <v>240.3045437566416</v>
@@ -10448,7 +10448,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q33" t="n">
-        <v>122.5080347337896</v>
+        <v>44.82187063221569</v>
       </c>
       <c r="R33" t="n">
         <v>29.49804203773589</v>
@@ -10664,10 +10664,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J36" t="n">
-        <v>81.70699090058493</v>
+        <v>61.51705889948339</v>
       </c>
       <c r="K36" t="n">
-        <v>171.373473584151</v>
+        <v>86.51660982709645</v>
       </c>
       <c r="L36" t="n">
         <v>240.3045437566416</v>
@@ -10676,7 +10676,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N36" t="n">
-        <v>114.2588509958514</v>
+        <v>310.6138585746227</v>
       </c>
       <c r="O36" t="n">
         <v>255.2227828913207</v>
@@ -10685,7 +10685,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q36" t="n">
-        <v>136.1300824528302</v>
+        <v>44.82187063221569</v>
       </c>
       <c r="R36" t="n">
         <v>29.49804203773589</v>
@@ -10904,7 +10904,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K39" t="n">
-        <v>8.83044572552248</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L39" t="n">
         <v>240.3045437566416</v>
@@ -10913,7 +10913,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N39" t="n">
-        <v>310.6138585746227</v>
+        <v>205.5670628164665</v>
       </c>
       <c r="O39" t="n">
         <v>255.2227828913207</v>
@@ -10922,7 +10922,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q39" t="n">
-        <v>102.3181027326873</v>
+        <v>44.82187063221571</v>
       </c>
       <c r="R39" t="n">
         <v>29.49804203773589</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>109.5746066315038</v>
+        <v>109.5746066315041</v>
       </c>
       <c r="K41" t="n">
         <v>210.0462273461148</v>
@@ -11138,10 +11138,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J42" t="n">
-        <v>61.51705889948337</v>
+        <v>61.5170588994834</v>
       </c>
       <c r="K42" t="n">
-        <v>171.373473584151</v>
+        <v>86.51660982709588</v>
       </c>
       <c r="L42" t="n">
         <v>240.3045437566416</v>
@@ -11150,7 +11150,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N42" t="n">
-        <v>225.756994817568</v>
+        <v>310.6138585746227</v>
       </c>
       <c r="O42" t="n">
         <v>255.2227828913207</v>
@@ -11159,7 +11159,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q42" t="n">
-        <v>44.82187063221568</v>
+        <v>44.82187063221571</v>
       </c>
       <c r="R42" t="n">
         <v>29.49804203773589</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>109.5746066315039</v>
+        <v>109.5746066315038</v>
       </c>
       <c r="K44" t="n">
         <v>210.0462273461148</v>
@@ -11375,10 +11375,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J45" t="n">
-        <v>61.51705889948337</v>
+        <v>61.5170588994834</v>
       </c>
       <c r="K45" t="n">
-        <v>86.5166098270962</v>
+        <v>86.51660982709588</v>
       </c>
       <c r="L45" t="n">
         <v>240.3045437566416</v>
@@ -11396,7 +11396,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q45" t="n">
-        <v>44.82187063221568</v>
+        <v>44.82187063221571</v>
       </c>
       <c r="R45" t="n">
         <v>29.49804203773589</v>
@@ -23266,19 +23266,19 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E11" t="n">
-        <v>152.3393205943757</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>57.36290847349926</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>332.2997728652675</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>185.5911946793677</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,7 +23305,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>104.5842356695385</v>
       </c>
       <c r="S11" t="n">
         <v>194.7603440885288</v>
@@ -23314,16 +23314,16 @@
         <v>216.1732982980278</v>
       </c>
       <c r="U11" t="n">
-        <v>250.0355428294531</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>337.8964638257669</v>
       </c>
       <c r="X11" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>382.2855674184499</v>
@@ -23339,16 +23339,16 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>110.9110111783598</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -23357,7 +23357,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>80.88269664813838</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,22 +23384,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>86.9668093141174</v>
+        <v>86.96680931411738</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>177.3046992815431</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>211.8708247664476</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W12" t="n">
-        <v>266.7045835770116</v>
+        <v>26.60305246465552</v>
       </c>
       <c r="X12" t="n">
         <v>217.3129144394706</v>
@@ -23436,10 +23436,10 @@
         <v>160.0914904239654</v>
       </c>
       <c r="I13" t="n">
-        <v>145.4619076189266</v>
+        <v>139.0188967007556</v>
       </c>
       <c r="J13" t="n">
-        <v>25.55861665566665</v>
+        <v>74.65185754899971</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,10 +23460,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>73.22331673875183</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>174.4371603754213</v>
       </c>
       <c r="S13" t="n">
         <v>224.2008427698061</v>
@@ -23478,7 +23478,7 @@
         <v>245.1090151844499</v>
       </c>
       <c r="W13" t="n">
-        <v>290.3107070893353</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>221.9194554082425</v>
@@ -23509,10 +23509,10 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G14" t="n">
-        <v>417.4006896726905</v>
+        <v>79.58955308642857</v>
       </c>
       <c r="H14" t="n">
-        <v>332.2997728652675</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>185.5911946793677</v>
@@ -23542,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>104.5842356695385</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>194.7603440885288</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>216.1732982980278</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X14" t="n">
-        <v>121.8976486210352</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23573,7 +23573,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>88.93945892445228</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C15" t="n">
         <v>187.5181515243659</v>
@@ -23585,16 +23585,16 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F15" t="n">
-        <v>158.8234391199283</v>
+        <v>52.90235822044535</v>
       </c>
       <c r="G15" t="n">
         <v>147.9754831086837</v>
       </c>
       <c r="H15" t="n">
-        <v>118.3074313936392</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>80.88269664813839</v>
+        <v>80.88269664813838</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>86.9668093141174</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -23642,7 +23642,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="16">
@@ -23673,10 +23673,10 @@
         <v>160.0914904239654</v>
       </c>
       <c r="I16" t="n">
-        <v>145.4619076189266</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>25.55861665566677</v>
+        <v>74.65185754899971</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,16 +23697,16 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>73.22331673875183</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>174.4371603754213</v>
       </c>
       <c r="S16" t="n">
         <v>224.2008427698061</v>
       </c>
       <c r="T16" t="n">
-        <v>221.0064803333194</v>
+        <v>69.71466994473968</v>
       </c>
       <c r="U16" t="n">
         <v>288.6213857585613</v>
@@ -23740,16 +23740,16 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E17" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>403.1992496400135</v>
       </c>
       <c r="G17" t="n">
-        <v>417.4006896726905</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>332.2997728652675</v>
+        <v>179.1466718496723</v>
       </c>
       <c r="I17" t="n">
         <v>185.5911946793677</v>
@@ -23779,28 +23779,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>104.5842356695385</v>
       </c>
       <c r="S17" t="n">
         <v>194.7603440885288</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.1732982980278</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.0355428294531</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y17" t="n">
-        <v>309.4228719509563</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23810,10 +23810,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -23831,7 +23831,7 @@
         <v>118.3074313936392</v>
       </c>
       <c r="I18" t="n">
-        <v>80.88269664813839</v>
+        <v>47.63987631075783</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,19 +23858,19 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>86.9668093141174</v>
+        <v>86.96680931411738</v>
       </c>
       <c r="S18" t="n">
-        <v>177.3046992815431</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>211.8708247664476</v>
       </c>
       <c r="U18" t="n">
-        <v>237.1774694070239</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>139.9279430301102</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -23879,7 +23879,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="19">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>55.30036303288333</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C19" t="n">
         <v>166.4571809719723</v>
@@ -23907,13 +23907,13 @@
         <v>168.0559694104069</v>
       </c>
       <c r="H19" t="n">
-        <v>160.0914904239654</v>
+        <v>153.6484795057944</v>
       </c>
       <c r="I19" t="n">
         <v>145.4619076189266</v>
       </c>
       <c r="J19" t="n">
-        <v>74.65185754899974</v>
+        <v>74.65185754899971</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,10 +23934,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>73.22331673875186</v>
+        <v>73.22331673875183</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>174.4371603754213</v>
       </c>
       <c r="S19" t="n">
         <v>224.2008427698061</v>
@@ -23952,7 +23952,7 @@
         <v>245.1090151844499</v>
       </c>
       <c r="W19" t="n">
-        <v>290.3107070893353</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>221.9194554082425</v>
@@ -23971,10 +23971,10 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D20" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>371.4789120616362</v>
@@ -23983,7 +23983,7 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G20" t="n">
-        <v>417.4006896726905</v>
+        <v>179.3913198154799</v>
       </c>
       <c r="H20" t="n">
         <v>332.2997728652675</v>
@@ -24022,7 +24022,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>216.1732982980278</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24031,13 +24031,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>278.4327008279299</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X20" t="n">
         <v>359.7827142947061</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="21">
@@ -24053,19 +24053,19 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>121.2815936762928</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>118.3074313936392</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -24104,16 +24104,16 @@
         <v>211.8708247664476</v>
       </c>
       <c r="U21" t="n">
-        <v>237.1774694070239</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W21" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>66.70685900227494</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -24138,19 +24138,19 @@
         <v>141.676141212225</v>
       </c>
       <c r="F22" t="n">
-        <v>138.9268822184467</v>
+        <v>130.7945499695017</v>
       </c>
       <c r="G22" t="n">
         <v>168.0559694104069</v>
       </c>
       <c r="H22" t="n">
-        <v>156.6748543231375</v>
+        <v>160.0914904239654</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>145.4619076189266</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>74.65185754899971</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,7 +24171,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>73.22331673875185</v>
       </c>
       <c r="R22" t="n">
         <v>174.4371603754213</v>
@@ -24183,7 +24183,7 @@
         <v>221.0064803333194</v>
       </c>
       <c r="U22" t="n">
-        <v>288.6213857585613</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>245.1090151844499</v>
@@ -24205,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C23" t="n">
         <v>350.2054973811788</v>
       </c>
       <c r="D23" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>371.4789120616362</v>
@@ -24253,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>104.5842356695385</v>
       </c>
       <c r="S23" t="n">
-        <v>194.7603440885288</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>73.69185520463009</v>
+        <v>17.18910876795712</v>
       </c>
       <c r="U23" t="n">
-        <v>250.0355428294531</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X23" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="24">
@@ -24287,13 +24287,13 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>83.46233148270885</v>
       </c>
       <c r="F24" t="n">
         <v>158.8234391199283</v>
@@ -24332,19 +24332,19 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>86.9668093141174</v>
       </c>
       <c r="S24" t="n">
         <v>177.3046992815431</v>
       </c>
       <c r="T24" t="n">
-        <v>211.8708247664476</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>237.1774694070239</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>68.07131322429942</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -24378,16 +24378,16 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G25" t="n">
-        <v>31.39374182686615</v>
+        <v>168.0559694104069</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>160.0914904239654</v>
       </c>
       <c r="I25" t="n">
         <v>145.4619076189266</v>
       </c>
       <c r="J25" t="n">
-        <v>74.65185754899973</v>
+        <v>74.65185754899971</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24414,13 +24414,13 @@
         <v>174.4371603754213</v>
       </c>
       <c r="S25" t="n">
-        <v>224.2008427698061</v>
+        <v>216.0685105208612</v>
       </c>
       <c r="T25" t="n">
         <v>221.0064803333194</v>
       </c>
       <c r="U25" t="n">
-        <v>288.6213857585613</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>245.1090151844499</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>374.0872403778333</v>
+        <v>372.7958988908676</v>
       </c>
       <c r="C26" t="n">
         <v>350.2054973811788</v>
@@ -24457,13 +24457,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>417.4006896726905</v>
       </c>
       <c r="H26" t="n">
-        <v>332.2997728652675</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>53.22747170179744</v>
+        <v>185.5911946793677</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24496,7 +24496,7 @@
         <v>194.7603440885288</v>
       </c>
       <c r="T26" t="n">
-        <v>216.1732982980278</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>250.0355428294531</v>
@@ -24521,19 +24521,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>171.8275718397997</v>
+        <v>81.622732711168</v>
       </c>
       <c r="F27" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>147.9754831086837</v>
@@ -24569,10 +24569,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>86.9668093141174</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>177.3046992815431</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -24581,16 +24581,16 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>186.6739253652702</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24606,13 +24606,13 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E28" t="n">
-        <v>129.0319556738762</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G28" t="n">
         <v>168.0559694104069</v>
@@ -24621,7 +24621,7 @@
         <v>160.0914904239654</v>
       </c>
       <c r="I28" t="n">
-        <v>145.4619076189266</v>
+        <v>139.0188967007558</v>
       </c>
       <c r="J28" t="n">
         <v>74.65185754899973</v>
@@ -24663,7 +24663,7 @@
         <v>245.1090151844499</v>
       </c>
       <c r="W28" t="n">
-        <v>290.3107070893353</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>221.9194554082425</v>
@@ -24679,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C29" t="n">
         <v>350.2054973811788</v>
       </c>
       <c r="D29" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>371.4789120616362</v>
@@ -24694,13 +24694,13 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G29" t="n">
-        <v>417.4006896726905</v>
+        <v>1.769905585151491</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>332.2997728652675</v>
       </c>
       <c r="I29" t="n">
-        <v>22.9826837333369</v>
+        <v>185.5911946793677</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,25 +24730,25 @@
         <v>104.5842356695385</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>194.7603440885288</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.1732982980278</v>
       </c>
       <c r="U29" t="n">
-        <v>250.0355428294531</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>359.7827142947061</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="30">
@@ -24758,28 +24758,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C30" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>29.3993675708156</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>41.2176407316102</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>147.9754831086837</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>118.3074313936392</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>80.88269664813839</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24809,22 +24809,22 @@
         <v>86.9668093141174</v>
       </c>
       <c r="S30" t="n">
-        <v>177.3046992815431</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>211.8708247664476</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C31" t="n">
-        <v>166.4571809719723</v>
+        <v>37.75943237487314</v>
       </c>
       <c r="D31" t="n">
         <v>145.1826502507107</v>
@@ -24852,10 +24852,10 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G31" t="n">
-        <v>31.39374182686618</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>160.0914904239654</v>
       </c>
       <c r="I31" t="n">
         <v>145.4619076189266</v>
@@ -24916,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>337.7721596422273</v>
@@ -24931,7 +24931,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>417.4006896726905</v>
       </c>
       <c r="H32" t="n">
         <v>332.2997728652675</v>
@@ -24970,19 +24970,19 @@
         <v>194.7603440885288</v>
       </c>
       <c r="T32" t="n">
-        <v>66.91719928738198</v>
+        <v>216.1732982980278</v>
       </c>
       <c r="U32" t="n">
         <v>250.0355428294531</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W32" t="n">
         <v>337.8964638257669</v>
       </c>
       <c r="X32" t="n">
-        <v>359.7827142947061</v>
+        <v>196.5388797612299</v>
       </c>
       <c r="Y32" t="n">
         <v>382.2855674184499</v>
@@ -24998,22 +24998,22 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E33" t="n">
-        <v>171.8275718397997</v>
+        <v>59.10965824062707</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
         <v>147.9754831086837</v>
       </c>
       <c r="H33" t="n">
-        <v>72.72289883274864</v>
+        <v>118.3074313936392</v>
       </c>
       <c r="I33" t="n">
         <v>80.88269664813839</v>
@@ -25046,7 +25046,7 @@
         <v>86.9668093141174</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>177.3046992815431</v>
       </c>
       <c r="T33" t="n">
         <v>211.8708247664476</v>
@@ -25055,7 +25055,7 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -25086,10 +25086,10 @@
         <v>141.676141212225</v>
       </c>
       <c r="F34" t="n">
-        <v>10.22913362134744</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>168.0559694104069</v>
       </c>
       <c r="H34" t="n">
         <v>160.0914904239654</v>
@@ -25122,7 +25122,7 @@
         <v>73.22331673875185</v>
       </c>
       <c r="R34" t="n">
-        <v>174.4371603754213</v>
+        <v>16.61032458636186</v>
       </c>
       <c r="S34" t="n">
         <v>224.2008427698061</v>
@@ -25162,16 +25162,16 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F35" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>417.4006896726905</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>332.2997728652675</v>
       </c>
       <c r="I35" t="n">
         <v>185.5911946793677</v>
@@ -25204,25 +25204,25 @@
         <v>104.5842356695385</v>
       </c>
       <c r="S35" t="n">
-        <v>111.2738407542415</v>
+        <v>194.7603440885288</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.1732982980278</v>
       </c>
       <c r="U35" t="n">
-        <v>250.0355428294531</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>128.6027793922354</v>
       </c>
       <c r="X35" t="n">
         <v>359.7827142947061</v>
       </c>
       <c r="Y35" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25232,28 +25232,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>50.61940249607886</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>33.30796887446218</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>118.3074313936392</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>80.88269664813839</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25283,25 +25283,25 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>177.3046992815431</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>211.8708247664476</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>237.1774694070239</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="37">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>177.6169206649681</v>
+        <v>169.4845884160233</v>
       </c>
       <c r="C37" t="n">
         <v>166.4571809719723</v>
@@ -25365,7 +25365,7 @@
         <v>224.2008427698061</v>
       </c>
       <c r="T37" t="n">
-        <v>212.8741480843745</v>
+        <v>221.0064803333194</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>188.9121053637397</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C38" t="n">
         <v>350.2054973811788</v>
@@ -25402,16 +25402,16 @@
         <v>371.4789120616362</v>
       </c>
       <c r="F38" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>417.4006896726905</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>332.2997728652675</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>185.5911946793677</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,16 +25438,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>104.5842356695385</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>194.7603440885288</v>
       </c>
       <c r="T38" t="n">
         <v>216.1732982980278</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>100.5032353079933</v>
       </c>
       <c r="V38" t="n">
         <v>320.879783609152</v>
@@ -25459,7 +25459,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="39">
@@ -25472,13 +25472,13 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>23.2335826957648</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -25487,7 +25487,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>118.3074313936392</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -25526,19 +25526,19 @@
         <v>211.8708247664476</v>
       </c>
       <c r="U39" t="n">
-        <v>237.1774694070239</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>246.4446332651696</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="40">
@@ -25563,7 +25563,7 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G40" t="n">
-        <v>168.0559694104069</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>160.0914904239654</v>
@@ -25572,7 +25572,7 @@
         <v>145.4619076189266</v>
       </c>
       <c r="J40" t="n">
-        <v>74.65185754899973</v>
+        <v>74.65185754899974</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,7 +25593,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>73.22331673875185</v>
+        <v>73.22331673875186</v>
       </c>
       <c r="R40" t="n">
         <v>174.4371603754213</v>
@@ -25602,13 +25602,13 @@
         <v>224.2008427698061</v>
       </c>
       <c r="T40" t="n">
-        <v>221.0064803333194</v>
+        <v>92.30873173622021</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>288.6213857585613</v>
       </c>
       <c r="V40" t="n">
-        <v>236.9766829355051</v>
+        <v>245.1090151844499</v>
       </c>
       <c r="W40" t="n">
         <v>290.3107070893353</v>
@@ -25627,19 +25627,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>248.7442013424879</v>
       </c>
       <c r="E41" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>417.4006896726905</v>
@@ -25675,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>52.90747023993482</v>
+        <v>104.5842356695385</v>
       </c>
       <c r="S41" t="n">
         <v>194.7603440885288</v>
@@ -25684,7 +25684,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>250.0355428294531</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>320.879783609152</v>
@@ -25712,10 +25712,10 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E42" t="n">
-        <v>136.6180915315379</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -25727,7 +25727,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>80.88269664813839</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25760,22 +25760,22 @@
         <v>177.3046992815431</v>
       </c>
       <c r="T42" t="n">
-        <v>211.8708247664476</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>114.5052762678242</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25797,7 +25797,7 @@
         <v>141.676141212225</v>
       </c>
       <c r="F43" t="n">
-        <v>138.9268822184467</v>
+        <v>59.31443702510899</v>
       </c>
       <c r="G43" t="n">
         <v>168.0559694104069</v>
@@ -25809,7 +25809,7 @@
         <v>145.4619076189266</v>
       </c>
       <c r="J43" t="n">
-        <v>74.65185754899971</v>
+        <v>74.65185754899974</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,7 +25830,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>73.22331673875185</v>
+        <v>73.22331673875186</v>
       </c>
       <c r="R43" t="n">
         <v>174.4371603754213</v>
@@ -25845,16 +25845,16 @@
         <v>288.6213857585613</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>245.1090151844499</v>
       </c>
       <c r="W43" t="n">
-        <v>238.666004266279</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X43" t="n">
         <v>221.9194554082425</v>
       </c>
       <c r="Y43" t="n">
-        <v>217.1412728141684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C44" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>337.7721596422273</v>
@@ -25879,13 +25879,13 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G44" t="n">
-        <v>417.4006896726905</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>332.2997728652675</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>185.5911946793677</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>104.5842356695385</v>
+        <v>99.34556833554157</v>
       </c>
       <c r="S44" t="n">
         <v>194.7603440885288</v>
@@ -25924,16 +25924,16 @@
         <v>250.0355428294531</v>
       </c>
       <c r="V44" t="n">
-        <v>146.2994837676392</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W44" t="n">
         <v>337.8964638257669</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="45">
@@ -25952,16 +25952,16 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E45" t="n">
-        <v>170.9833456807033</v>
+        <v>114.5052762678241</v>
       </c>
       <c r="F45" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>147.9754831086837</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>118.3074313936392</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>80.88269664813839</v>
@@ -25991,10 +25991,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>86.9668093141174</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>177.3046992815431</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -26009,7 +26009,7 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -26037,16 +26037,16 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G46" t="n">
-        <v>168.0559694104069</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>160.0914904239654</v>
+        <v>31.3937418268662</v>
       </c>
       <c r="I46" t="n">
         <v>145.4619076189266</v>
       </c>
       <c r="J46" t="n">
-        <v>74.65185754899971</v>
+        <v>74.65185754899974</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,16 +26067,16 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>73.22331673875185</v>
+        <v>73.22331673875186</v>
       </c>
       <c r="R46" t="n">
         <v>174.4371603754213</v>
       </c>
       <c r="S46" t="n">
-        <v>148.4536050956192</v>
+        <v>224.2008427698061</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.0064803333194</v>
       </c>
       <c r="U46" t="n">
         <v>288.6213857585613</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>568764.064836293</v>
+        <v>568764.0648362931</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>568764.064836293</v>
+        <v>568764.0648362931</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>568764.0648362929</v>
+        <v>568764.064836293</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>568764.0648362929</v>
+        <v>568764.0648362928</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>568764.0648362931</v>
+        <v>568764.0648362929</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>568764.0648362928</v>
+        <v>568764.0648362932</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>568764.064836293</v>
+        <v>568764.0648362929</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>568764.064836293</v>
+        <v>568764.0648362928</v>
       </c>
     </row>
     <row r="16">
@@ -26316,7 +26316,7 @@
         <v>551541.6239090763</v>
       </c>
       <c r="C2" t="n">
-        <v>551541.6239090764</v>
+        <v>551541.6239090762</v>
       </c>
       <c r="D2" t="n">
         <v>551541.6239090763</v>
@@ -26328,13 +26328,13 @@
         <v>312861.2431607452</v>
       </c>
       <c r="G2" t="n">
-        <v>312861.2431607451</v>
+        <v>312861.2431607452</v>
       </c>
       <c r="H2" t="n">
         <v>312861.2431607451</v>
       </c>
       <c r="I2" t="n">
-        <v>312861.2431607451</v>
+        <v>312861.2431607452</v>
       </c>
       <c r="J2" t="n">
         <v>312861.2431607451</v>
@@ -26349,10 +26349,10 @@
         <v>312861.2431607451</v>
       </c>
       <c r="N2" t="n">
+        <v>312861.243160745</v>
+      </c>
+      <c r="O2" t="n">
         <v>312861.2431607451</v>
-      </c>
-      <c r="O2" t="n">
-        <v>312861.2431607452</v>
       </c>
       <c r="P2" t="n">
         <v>312861.243160745</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1178.583834366815</v>
+        <v>1178.583834366837</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>495393.5289189677</v>
+        <v>495393.5289189678</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>920.1677854372181</v>
+        <v>920.1677854371891</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>105862.0278985366</v>
+        <v>105862.0278985367</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,34 +26426,34 @@
         <v>387618.2278065301</v>
       </c>
       <c r="E4" t="n">
-        <v>5935.088681661154</v>
+        <v>5935.088681661155</v>
       </c>
       <c r="F4" t="n">
-        <v>5935.088681661154</v>
+        <v>5935.088681661155</v>
       </c>
       <c r="G4" t="n">
         <v>5935.088681661155</v>
       </c>
       <c r="H4" t="n">
-        <v>5935.088681661156</v>
+        <v>5935.088681661155</v>
       </c>
       <c r="I4" t="n">
-        <v>5935.088681661154</v>
+        <v>5935.088681661155</v>
       </c>
       <c r="J4" t="n">
-        <v>5935.088681661154</v>
+        <v>5935.088681661155</v>
       </c>
       <c r="K4" t="n">
-        <v>5935.088681661154</v>
+        <v>5935.088681661155</v>
       </c>
       <c r="L4" t="n">
         <v>5935.088681661155</v>
       </c>
       <c r="M4" t="n">
-        <v>5935.088681661154</v>
+        <v>5935.088681661155</v>
       </c>
       <c r="N4" t="n">
-        <v>5935.088681661154</v>
+        <v>5935.088681661155</v>
       </c>
       <c r="O4" t="n">
         <v>5935.088681661155</v>
@@ -26478,22 +26478,22 @@
         <v>33841.42566141239</v>
       </c>
       <c r="E5" t="n">
+        <v>36042.35550341868</v>
+      </c>
+      <c r="F5" t="n">
+        <v>36042.35550341868</v>
+      </c>
+      <c r="G5" t="n">
+        <v>36042.35550341868</v>
+      </c>
+      <c r="H5" t="n">
         <v>36042.35550341867</v>
-      </c>
-      <c r="F5" t="n">
-        <v>36042.35550341867</v>
-      </c>
-      <c r="G5" t="n">
-        <v>36042.35550341866</v>
-      </c>
-      <c r="H5" t="n">
-        <v>36042.35550341866</v>
       </c>
       <c r="I5" t="n">
         <v>36042.35550341867</v>
       </c>
       <c r="J5" t="n">
-        <v>36042.35550341866</v>
+        <v>36042.35550341867</v>
       </c>
       <c r="K5" t="n">
         <v>36042.35550341867</v>
@@ -26502,16 +26502,16 @@
         <v>36042.35550341867</v>
       </c>
       <c r="M5" t="n">
-        <v>36042.35550341866</v>
+        <v>36042.35550341867</v>
       </c>
       <c r="N5" t="n">
         <v>36042.35550341866</v>
       </c>
       <c r="O5" t="n">
-        <v>36042.35550341867</v>
+        <v>36042.35550341866</v>
       </c>
       <c r="P5" t="n">
-        <v>36042.35550341867</v>
+        <v>36042.35550341866</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>128903.3866067671</v>
+        <v>128872.0878416667</v>
       </c>
       <c r="C6" t="n">
-        <v>130081.9704411339</v>
+        <v>130050.6716760334</v>
       </c>
       <c r="D6" t="n">
-        <v>130081.9704411338</v>
+        <v>130050.6716760335</v>
       </c>
       <c r="E6" t="n">
-        <v>-224509.7299433023</v>
+        <v>-234088.2439383361</v>
       </c>
       <c r="F6" t="n">
-        <v>270883.7989756654</v>
+        <v>261305.2849806318</v>
       </c>
       <c r="G6" t="n">
-        <v>270883.7989756653</v>
+        <v>261305.2849806318</v>
       </c>
       <c r="H6" t="n">
-        <v>270883.7989756653</v>
+        <v>261305.2849806316</v>
       </c>
       <c r="I6" t="n">
-        <v>270883.7989756652</v>
+        <v>261305.2849806318</v>
       </c>
       <c r="J6" t="n">
-        <v>269963.6311902281</v>
+        <v>260385.1171951945</v>
       </c>
       <c r="K6" t="n">
-        <v>270883.7989756653</v>
+        <v>261305.2849806317</v>
       </c>
       <c r="L6" t="n">
-        <v>270883.7989756652</v>
+        <v>261305.2849806316</v>
       </c>
       <c r="M6" t="n">
-        <v>165021.7710771287</v>
+        <v>155443.257082095</v>
       </c>
       <c r="N6" t="n">
-        <v>270883.7989756653</v>
+        <v>261305.2849806316</v>
       </c>
       <c r="O6" t="n">
-        <v>270883.7989756654</v>
+        <v>261305.2849806316</v>
       </c>
       <c r="P6" t="n">
-        <v>270883.7989756651</v>
+        <v>261305.2849806316</v>
       </c>
     </row>
   </sheetData>
@@ -26746,16 +26746,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
+        <v>458.7453524529083</v>
+      </c>
+      <c r="F3" t="n">
+        <v>458.7453524529083</v>
+      </c>
+      <c r="G3" t="n">
+        <v>458.7453524529083</v>
+      </c>
+      <c r="H3" t="n">
         <v>458.7453524529082</v>
-      </c>
-      <c r="F3" t="n">
-        <v>458.7453524529082</v>
-      </c>
-      <c r="G3" t="n">
-        <v>458.7453524529081</v>
-      </c>
-      <c r="H3" t="n">
-        <v>458.7453524529081</v>
       </c>
       <c r="I3" t="n">
         <v>458.7453524529082</v>
@@ -26773,13 +26773,13 @@
         <v>458.7453524529082</v>
       </c>
       <c r="N3" t="n">
-        <v>458.7453524529082</v>
+        <v>458.7453524529081</v>
       </c>
       <c r="O3" t="n">
-        <v>458.7453524529082</v>
+        <v>458.7453524529081</v>
       </c>
       <c r="P3" t="n">
-        <v>458.7453524529082</v>
+        <v>458.7453524529081</v>
       </c>
     </row>
     <row r="4">
@@ -26798,13 +26798,13 @@
         <v>3.516869431124803</v>
       </c>
       <c r="E4" t="n">
-        <v>428.3175463806788</v>
+        <v>428.3175463806789</v>
       </c>
       <c r="F4" t="n">
-        <v>428.3175463806788</v>
+        <v>428.3175463806789</v>
       </c>
       <c r="G4" t="n">
-        <v>428.3175463806788</v>
+        <v>428.3175463806789</v>
       </c>
       <c r="H4" t="n">
         <v>428.3175463806788</v>
@@ -26813,7 +26813,7 @@
         <v>428.3175463806788</v>
       </c>
       <c r="J4" t="n">
-        <v>428.3175463806787</v>
+        <v>428.3175463806788</v>
       </c>
       <c r="K4" t="n">
         <v>428.3175463806788</v>
@@ -26822,16 +26822,16 @@
         <v>428.3175463806788</v>
       </c>
       <c r="M4" t="n">
+        <v>428.3175463806789</v>
+      </c>
+      <c r="N4" t="n">
+        <v>428.3175463806788</v>
+      </c>
+      <c r="O4" t="n">
         <v>428.3175463806787</v>
       </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>428.3175463806787</v>
-      </c>
-      <c r="O4" t="n">
-        <v>428.3175463806788</v>
-      </c>
-      <c r="P4" t="n">
-        <v>428.3175463806788</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>458.7453524529082</v>
+        <v>458.7453524529083</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>424.800676949554</v>
+        <v>424.8006769495541</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>3.516869431124803</v>
+        <v>3.516869431124693</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>424.8006769495539</v>
+        <v>424.8006769495541</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>424.800676949554</v>
+        <v>424.8006769495541</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27472,7 +27472,7 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G3" t="n">
-        <v>148.9622183950918</v>
+        <v>145.445348963967</v>
       </c>
       <c r="H3" t="n">
         <v>127.8372169228968</v>
@@ -27502,13 +27502,13 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>31.13081250099125</v>
+        <v>34.64768193211606</v>
       </c>
       <c r="R3" t="n">
-        <v>148.2309527983001</v>
+        <v>145.1332942033654</v>
       </c>
       <c r="S3" t="n">
-        <v>195.63287444794</v>
+        <v>192.1160050168152</v>
       </c>
       <c r="T3" t="n">
         <v>212.3311909853626</v>
@@ -27523,10 +27523,10 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X3" t="n">
-        <v>214.2152558445359</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y3" t="n">
-        <v>219.8674167029008</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="4">
@@ -27703,19 +27703,19 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E6" t="n">
-        <v>171.8275718397997</v>
+        <v>168.7299132448649</v>
       </c>
       <c r="F6" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G6" t="n">
-        <v>148.9622183950918</v>
+        <v>145.445348963967</v>
       </c>
       <c r="H6" t="n">
-        <v>127.8372169228968</v>
+        <v>124.320347491772</v>
       </c>
       <c r="I6" t="n">
-        <v>114.855819447717</v>
+        <v>111.3389500165922</v>
       </c>
       <c r="J6" t="n">
         <v>73.03491363274843</v>
@@ -27742,19 +27742,19 @@
         <v>34.64768193211606</v>
       </c>
       <c r="R6" t="n">
-        <v>145.1332942033654</v>
+        <v>148.2309527983001</v>
       </c>
       <c r="S6" t="n">
         <v>195.63287444794</v>
       </c>
       <c r="T6" t="n">
-        <v>212.3311909853626</v>
+        <v>215.8480604164874</v>
       </c>
       <c r="U6" t="n">
-        <v>233.7255167710576</v>
+        <v>237.2423862021824</v>
       </c>
       <c r="V6" t="n">
-        <v>237.1320514842774</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W6" t="n">
         <v>266.7045835770116</v>
@@ -27864,7 +27864,7 @@
         <v>371.4789120616362</v>
       </c>
       <c r="F8" t="n">
-        <v>399.8223516122474</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27903,7 +27903,7 @@
         <v>220.4301160555486</v>
       </c>
       <c r="S8" t="n">
-        <v>236.785106778059</v>
+        <v>236.6074583903064</v>
       </c>
       <c r="T8" t="n">
         <v>224.246294399988</v>
@@ -27934,7 +27934,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C9" t="n">
-        <v>187.5181515243659</v>
+        <v>184.0012820932411</v>
       </c>
       <c r="D9" t="n">
         <v>159.1723150765785</v>
@@ -27955,7 +27955,7 @@
         <v>114.855819447717</v>
       </c>
       <c r="J9" t="n">
-        <v>73.03491363274843</v>
+        <v>69.51804420162362</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27976,22 +27976,22 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>34.64768193211606</v>
+        <v>31.55002333718133</v>
       </c>
       <c r="R9" t="n">
-        <v>148.2309527983001</v>
+        <v>144.7140833671753</v>
       </c>
       <c r="S9" t="n">
-        <v>192.5352158530052</v>
+        <v>195.63287444794</v>
       </c>
       <c r="T9" t="n">
-        <v>212.3311909853626</v>
+        <v>215.8480604164874</v>
       </c>
       <c r="U9" t="n">
-        <v>233.7255167710576</v>
+        <v>237.2423862021824</v>
       </c>
       <c r="V9" t="n">
-        <v>237.1320514842774</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W9" t="n">
         <v>266.7045835770116</v>
@@ -31770,7 +31770,7 @@
         <v>291.028973697336</v>
       </c>
       <c r="M11" t="n">
-        <v>323.8258085181777</v>
+        <v>323.8258085181778</v>
       </c>
       <c r="N11" t="n">
         <v>329.0656486494615</v>
@@ -31788,10 +31788,10 @@
         <v>115.8458803860101</v>
       </c>
       <c r="S11" t="n">
-        <v>42.02476268953024</v>
+        <v>42.02476268953025</v>
       </c>
       <c r="T11" t="n">
-        <v>8.072996101960221</v>
+        <v>8.072996101960223</v>
       </c>
       <c r="U11" t="n">
         <v>0.147536193753699</v>
@@ -31831,13 +31831,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9867352864081422</v>
+        <v>0.9867352864081423</v>
       </c>
       <c r="H12" t="n">
-        <v>9.529785529257586</v>
+        <v>9.529785529257587</v>
       </c>
       <c r="I12" t="n">
-        <v>33.97312279957858</v>
+        <v>33.97312279957859</v>
       </c>
       <c r="J12" t="n">
         <v>93.22484563384998</v>
@@ -31846,10 +31846,10 @@
         <v>159.3361098231955</v>
       </c>
       <c r="L12" t="n">
-        <v>214.2470629545398</v>
+        <v>214.2470629545399</v>
       </c>
       <c r="M12" t="n">
-        <v>250.0162170868349</v>
+        <v>250.016217086835</v>
       </c>
       <c r="N12" t="n">
         <v>256.633402406651</v>
@@ -31858,7 +31858,7 @@
         <v>234.7694257972916</v>
       </c>
       <c r="P12" t="n">
-        <v>188.4231618405162</v>
+        <v>188.4231618405163</v>
       </c>
       <c r="Q12" t="n">
         <v>125.9558937527306</v>
@@ -31873,7 +31873,7 @@
         <v>3.977235650039835</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06491679515843043</v>
+        <v>0.06491679515843045</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,19 +31910,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8272457175380311</v>
+        <v>0.8272457175380312</v>
       </c>
       <c r="H13" t="n">
-        <v>7.3549664704745</v>
+        <v>7.354966470474501</v>
       </c>
       <c r="I13" t="n">
         <v>24.8775348510528</v>
       </c>
       <c r="J13" t="n">
-        <v>58.4862722299388</v>
+        <v>58.48627222993881</v>
       </c>
       <c r="K13" t="n">
-        <v>96.11091154669123</v>
+        <v>96.11091154669124</v>
       </c>
       <c r="L13" t="n">
         <v>122.9888769510633</v>
@@ -31934,16 +31934,16 @@
         <v>126.5911560301608</v>
       </c>
       <c r="O13" t="n">
-        <v>116.9274219661937</v>
+        <v>116.9274219661938</v>
       </c>
       <c r="P13" t="n">
         <v>100.0516093284178</v>
       </c>
       <c r="Q13" t="n">
-        <v>69.27054822038913</v>
+        <v>69.27054822038914</v>
       </c>
       <c r="R13" t="n">
-        <v>37.19597562675546</v>
+        <v>37.19597562675547</v>
       </c>
       <c r="S13" t="n">
         <v>14.41663673200368</v>
@@ -31989,13 +31989,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.844202421921237</v>
+        <v>1.844202421921238</v>
       </c>
       <c r="H14" t="n">
         <v>18.88693805350088</v>
       </c>
       <c r="I14" t="n">
-        <v>71.09861387111857</v>
+        <v>71.09861387111859</v>
       </c>
       <c r="J14" t="n">
         <v>156.5243753075378</v>
@@ -32004,31 +32004,31 @@
         <v>234.5894638274638</v>
       </c>
       <c r="L14" t="n">
-        <v>291.0289736973359</v>
+        <v>291.028973697336</v>
       </c>
       <c r="M14" t="n">
-        <v>323.8258085181777</v>
+        <v>323.8258085181778</v>
       </c>
       <c r="N14" t="n">
         <v>329.0656486494615</v>
       </c>
       <c r="O14" t="n">
-        <v>310.7273608164821</v>
+        <v>310.7273608164822</v>
       </c>
       <c r="P14" t="n">
-        <v>265.1986135253015</v>
+        <v>265.1986135253016</v>
       </c>
       <c r="Q14" t="n">
         <v>199.1531142902472</v>
       </c>
       <c r="R14" t="n">
-        <v>115.84588038601</v>
+        <v>115.8458803860101</v>
       </c>
       <c r="S14" t="n">
-        <v>42.02476268953024</v>
+        <v>42.02476268953025</v>
       </c>
       <c r="T14" t="n">
-        <v>8.072996101960221</v>
+        <v>8.072996101960223</v>
       </c>
       <c r="U14" t="n">
         <v>0.147536193753699</v>
@@ -32068,25 +32068,25 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9867352864081421</v>
+        <v>0.9867352864081423</v>
       </c>
       <c r="H15" t="n">
-        <v>9.529785529257584</v>
+        <v>9.529785529257587</v>
       </c>
       <c r="I15" t="n">
-        <v>33.97312279957858</v>
+        <v>33.97312279957859</v>
       </c>
       <c r="J15" t="n">
-        <v>93.22484563384997</v>
+        <v>93.22484563384998</v>
       </c>
       <c r="K15" t="n">
         <v>159.3361098231955</v>
       </c>
       <c r="L15" t="n">
-        <v>214.2470629545398</v>
+        <v>214.2470629545399</v>
       </c>
       <c r="M15" t="n">
-        <v>250.0162170868349</v>
+        <v>250.016217086835</v>
       </c>
       <c r="N15" t="n">
         <v>256.633402406651</v>
@@ -32095,22 +32095,22 @@
         <v>234.7694257972916</v>
       </c>
       <c r="P15" t="n">
-        <v>188.4231618405162</v>
+        <v>188.4231618405163</v>
       </c>
       <c r="Q15" t="n">
         <v>125.9558937527306</v>
       </c>
       <c r="R15" t="n">
-        <v>61.26414348418274</v>
+        <v>61.26414348418275</v>
       </c>
       <c r="S15" t="n">
         <v>18.32817516639684</v>
       </c>
       <c r="T15" t="n">
-        <v>3.977235650039834</v>
+        <v>3.977235650039835</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06491679515843042</v>
+        <v>0.06491679515843045</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.827245717538031</v>
+        <v>0.8272457175380312</v>
       </c>
       <c r="H16" t="n">
-        <v>7.354966470474499</v>
+        <v>7.354966470474501</v>
       </c>
       <c r="I16" t="n">
-        <v>24.87753485105279</v>
+        <v>24.8775348510528</v>
       </c>
       <c r="J16" t="n">
-        <v>58.48627222993879</v>
+        <v>58.48627222993881</v>
       </c>
       <c r="K16" t="n">
-        <v>96.11091154669121</v>
+        <v>96.11091154669124</v>
       </c>
       <c r="L16" t="n">
         <v>122.9888769510633</v>
       </c>
       <c r="M16" t="n">
-        <v>129.6745264318933</v>
+        <v>129.6745264318934</v>
       </c>
       <c r="N16" t="n">
         <v>126.5911560301608</v>
       </c>
       <c r="O16" t="n">
-        <v>116.9274219661937</v>
+        <v>116.9274219661938</v>
       </c>
       <c r="P16" t="n">
         <v>100.0516093284178</v>
       </c>
       <c r="Q16" t="n">
-        <v>69.27054822038913</v>
+        <v>69.27054822038914</v>
       </c>
       <c r="R16" t="n">
-        <v>37.19597562675546</v>
+        <v>37.19597562675547</v>
       </c>
       <c r="S16" t="n">
         <v>14.41663673200368</v>
       </c>
       <c r="T16" t="n">
-        <v>3.534595338571586</v>
+        <v>3.534595338571587</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04512249368389265</v>
+        <v>0.04512249368389266</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,13 +32226,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.844202421921237</v>
+        <v>1.844202421921238</v>
       </c>
       <c r="H17" t="n">
-        <v>18.88693805350087</v>
+        <v>18.88693805350088</v>
       </c>
       <c r="I17" t="n">
-        <v>71.09861387111856</v>
+        <v>71.09861387111859</v>
       </c>
       <c r="J17" t="n">
         <v>156.5243753075378</v>
@@ -32241,34 +32241,34 @@
         <v>234.5894638274638</v>
       </c>
       <c r="L17" t="n">
-        <v>291.0289736973359</v>
+        <v>291.028973697336</v>
       </c>
       <c r="M17" t="n">
-        <v>323.8258085181777</v>
+        <v>323.8258085181778</v>
       </c>
       <c r="N17" t="n">
-        <v>329.0656486494614</v>
+        <v>329.0656486494615</v>
       </c>
       <c r="O17" t="n">
-        <v>310.7273608164821</v>
+        <v>310.7273608164822</v>
       </c>
       <c r="P17" t="n">
-        <v>265.1986135253015</v>
+        <v>265.1986135253016</v>
       </c>
       <c r="Q17" t="n">
-        <v>199.1531142902471</v>
+        <v>199.1531142902472</v>
       </c>
       <c r="R17" t="n">
-        <v>115.84588038601</v>
+        <v>115.8458803860101</v>
       </c>
       <c r="S17" t="n">
-        <v>42.02476268953023</v>
+        <v>42.02476268953025</v>
       </c>
       <c r="T17" t="n">
-        <v>8.07299610196022</v>
+        <v>8.072996101960223</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1475361937536989</v>
+        <v>0.147536193753699</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.986735286408142</v>
+        <v>0.9867352864081423</v>
       </c>
       <c r="H18" t="n">
-        <v>9.529785529257584</v>
+        <v>9.529785529257587</v>
       </c>
       <c r="I18" t="n">
-        <v>33.97312279957858</v>
+        <v>33.97312279957859</v>
       </c>
       <c r="J18" t="n">
-        <v>93.22484563384995</v>
+        <v>93.22484563384998</v>
       </c>
       <c r="K18" t="n">
         <v>159.3361098231955</v>
       </c>
       <c r="L18" t="n">
-        <v>214.2470629545398</v>
+        <v>214.2470629545399</v>
       </c>
       <c r="M18" t="n">
-        <v>250.0162170868349</v>
+        <v>250.016217086835</v>
       </c>
       <c r="N18" t="n">
-        <v>256.6334024066509</v>
+        <v>256.633402406651</v>
       </c>
       <c r="O18" t="n">
-        <v>234.7694257972915</v>
+        <v>234.7694257972916</v>
       </c>
       <c r="P18" t="n">
-        <v>188.4231618405162</v>
+        <v>188.4231618405163</v>
       </c>
       <c r="Q18" t="n">
         <v>125.9558937527306</v>
       </c>
       <c r="R18" t="n">
-        <v>61.26414348418273</v>
+        <v>61.26414348418275</v>
       </c>
       <c r="S18" t="n">
         <v>18.32817516639684</v>
       </c>
       <c r="T18" t="n">
-        <v>3.977235650039834</v>
+        <v>3.977235650039835</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06491679515843042</v>
+        <v>0.06491679515843045</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8272457175380309</v>
+        <v>0.8272457175380312</v>
       </c>
       <c r="H19" t="n">
-        <v>7.354966470474499</v>
+        <v>7.354966470474501</v>
       </c>
       <c r="I19" t="n">
-        <v>24.87753485105279</v>
+        <v>24.8775348510528</v>
       </c>
       <c r="J19" t="n">
-        <v>58.48627222993878</v>
+        <v>58.48627222993881</v>
       </c>
       <c r="K19" t="n">
-        <v>96.1109115466912</v>
+        <v>96.11091154669124</v>
       </c>
       <c r="L19" t="n">
         <v>122.9888769510633</v>
       </c>
       <c r="M19" t="n">
-        <v>129.6745264318933</v>
+        <v>129.6745264318934</v>
       </c>
       <c r="N19" t="n">
         <v>126.5911560301608</v>
       </c>
       <c r="O19" t="n">
-        <v>116.9274219661937</v>
+        <v>116.9274219661938</v>
       </c>
       <c r="P19" t="n">
         <v>100.0516093284178</v>
       </c>
       <c r="Q19" t="n">
-        <v>69.27054822038912</v>
+        <v>69.27054822038914</v>
       </c>
       <c r="R19" t="n">
-        <v>37.19597562675546</v>
+        <v>37.19597562675547</v>
       </c>
       <c r="S19" t="n">
         <v>14.41663673200368</v>
       </c>
       <c r="T19" t="n">
-        <v>3.534595338571586</v>
+        <v>3.534595338571587</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04512249368389264</v>
+        <v>0.04512249368389266</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,13 +32463,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.844202421921237</v>
+        <v>1.844202421921238</v>
       </c>
       <c r="H20" t="n">
-        <v>18.88693805350087</v>
+        <v>18.88693805350088</v>
       </c>
       <c r="I20" t="n">
-        <v>71.09861387111856</v>
+        <v>71.09861387111859</v>
       </c>
       <c r="J20" t="n">
         <v>156.5243753075378</v>
@@ -32478,34 +32478,34 @@
         <v>234.5894638274638</v>
       </c>
       <c r="L20" t="n">
-        <v>291.0289736973359</v>
+        <v>291.028973697336</v>
       </c>
       <c r="M20" t="n">
         <v>323.8258085181777</v>
       </c>
       <c r="N20" t="n">
-        <v>329.0656486494614</v>
+        <v>329.0656486494615</v>
       </c>
       <c r="O20" t="n">
-        <v>310.7273608164821</v>
+        <v>310.7273608164822</v>
       </c>
       <c r="P20" t="n">
-        <v>265.1986135253015</v>
+        <v>265.1986135253016</v>
       </c>
       <c r="Q20" t="n">
-        <v>199.1531142902471</v>
+        <v>199.1531142902472</v>
       </c>
       <c r="R20" t="n">
-        <v>115.84588038601</v>
+        <v>115.8458803860101</v>
       </c>
       <c r="S20" t="n">
-        <v>42.02476268953023</v>
+        <v>42.02476268953024</v>
       </c>
       <c r="T20" t="n">
-        <v>8.07299610196022</v>
+        <v>8.072996101960221</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1475361937536989</v>
+        <v>0.147536193753699</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.986735286408142</v>
+        <v>0.9867352864081422</v>
       </c>
       <c r="H21" t="n">
-        <v>9.529785529257584</v>
+        <v>9.529785529257586</v>
       </c>
       <c r="I21" t="n">
         <v>33.97312279957858</v>
       </c>
       <c r="J21" t="n">
-        <v>93.22484563384995</v>
+        <v>93.22484563384998</v>
       </c>
       <c r="K21" t="n">
         <v>159.3361098231955</v>
@@ -32563,10 +32563,10 @@
         <v>250.0162170868349</v>
       </c>
       <c r="N21" t="n">
-        <v>256.6334024066509</v>
+        <v>256.633402406651</v>
       </c>
       <c r="O21" t="n">
-        <v>234.7694257972915</v>
+        <v>234.7694257972916</v>
       </c>
       <c r="P21" t="n">
         <v>188.4231618405162</v>
@@ -32575,16 +32575,16 @@
         <v>125.9558937527306</v>
       </c>
       <c r="R21" t="n">
-        <v>61.26414348418273</v>
+        <v>61.26414348418275</v>
       </c>
       <c r="S21" t="n">
         <v>18.32817516639684</v>
       </c>
       <c r="T21" t="n">
-        <v>3.977235650039834</v>
+        <v>3.977235650039835</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06491679515843042</v>
+        <v>0.06491679515843043</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,25 +32621,25 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8272457175380309</v>
+        <v>0.8272457175380311</v>
       </c>
       <c r="H22" t="n">
-        <v>7.354966470474499</v>
+        <v>7.3549664704745</v>
       </c>
       <c r="I22" t="n">
-        <v>24.87753485105279</v>
+        <v>24.8775348510528</v>
       </c>
       <c r="J22" t="n">
-        <v>58.48627222993878</v>
+        <v>58.4862722299388</v>
       </c>
       <c r="K22" t="n">
-        <v>96.1109115466912</v>
+        <v>96.11091154669123</v>
       </c>
       <c r="L22" t="n">
         <v>122.9888769510633</v>
       </c>
       <c r="M22" t="n">
-        <v>129.6745264318933</v>
+        <v>129.6745264318934</v>
       </c>
       <c r="N22" t="n">
         <v>126.5911560301608</v>
@@ -32651,7 +32651,7 @@
         <v>100.0516093284178</v>
       </c>
       <c r="Q22" t="n">
-        <v>69.27054822038912</v>
+        <v>69.27054822038913</v>
       </c>
       <c r="R22" t="n">
         <v>37.19597562675546</v>
@@ -32660,10 +32660,10 @@
         <v>14.41663673200368</v>
       </c>
       <c r="T22" t="n">
-        <v>3.534595338571586</v>
+        <v>3.534595338571587</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04512249368389264</v>
+        <v>0.04512249368389266</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,13 +32700,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.844202421921237</v>
+        <v>1.844202421921238</v>
       </c>
       <c r="H23" t="n">
         <v>18.88693805350088</v>
       </c>
       <c r="I23" t="n">
-        <v>71.09861387111857</v>
+        <v>71.09861387111859</v>
       </c>
       <c r="J23" t="n">
         <v>156.5243753075378</v>
@@ -32715,7 +32715,7 @@
         <v>234.5894638274638</v>
       </c>
       <c r="L23" t="n">
-        <v>291.0289736973359</v>
+        <v>291.028973697336</v>
       </c>
       <c r="M23" t="n">
         <v>323.8258085181777</v>
@@ -32724,16 +32724,16 @@
         <v>329.0656486494615</v>
       </c>
       <c r="O23" t="n">
-        <v>310.7273608164821</v>
+        <v>310.7273608164822</v>
       </c>
       <c r="P23" t="n">
-        <v>265.1986135253015</v>
+        <v>265.1986135253016</v>
       </c>
       <c r="Q23" t="n">
         <v>199.1531142902472</v>
       </c>
       <c r="R23" t="n">
-        <v>115.84588038601</v>
+        <v>115.8458803860101</v>
       </c>
       <c r="S23" t="n">
         <v>42.02476268953024</v>
@@ -32779,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9867352864081421</v>
+        <v>0.9867352864081422</v>
       </c>
       <c r="H24" t="n">
-        <v>9.529785529257584</v>
+        <v>9.529785529257586</v>
       </c>
       <c r="I24" t="n">
         <v>33.97312279957858</v>
       </c>
       <c r="J24" t="n">
-        <v>93.22484563384997</v>
+        <v>93.22484563384998</v>
       </c>
       <c r="K24" t="n">
         <v>159.3361098231955</v>
@@ -32812,16 +32812,16 @@
         <v>125.9558937527306</v>
       </c>
       <c r="R24" t="n">
-        <v>61.26414348418274</v>
+        <v>61.26414348418275</v>
       </c>
       <c r="S24" t="n">
         <v>18.32817516639684</v>
       </c>
       <c r="T24" t="n">
-        <v>3.977235650039834</v>
+        <v>3.977235650039835</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06491679515843042</v>
+        <v>0.06491679515843043</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,25 +32858,25 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.827245717538031</v>
+        <v>0.8272457175380311</v>
       </c>
       <c r="H25" t="n">
-        <v>7.354966470474499</v>
+        <v>7.3549664704745</v>
       </c>
       <c r="I25" t="n">
-        <v>24.87753485105279</v>
+        <v>24.8775348510528</v>
       </c>
       <c r="J25" t="n">
-        <v>58.48627222993879</v>
+        <v>58.4862722299388</v>
       </c>
       <c r="K25" t="n">
-        <v>96.11091154669121</v>
+        <v>96.11091154669123</v>
       </c>
       <c r="L25" t="n">
         <v>122.9888769510633</v>
       </c>
       <c r="M25" t="n">
-        <v>129.6745264318933</v>
+        <v>129.6745264318934</v>
       </c>
       <c r="N25" t="n">
         <v>126.5911560301608</v>
@@ -32897,10 +32897,10 @@
         <v>14.41663673200368</v>
       </c>
       <c r="T25" t="n">
-        <v>3.534595338571586</v>
+        <v>3.534595338571587</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04512249368389265</v>
+        <v>0.04512249368389266</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33888,10 +33888,10 @@
         <v>1.844202421921237</v>
       </c>
       <c r="H38" t="n">
-        <v>18.88693805350088</v>
+        <v>18.88693805350087</v>
       </c>
       <c r="I38" t="n">
-        <v>71.09861387111857</v>
+        <v>71.09861387111856</v>
       </c>
       <c r="J38" t="n">
         <v>156.5243753075378</v>
@@ -33906,7 +33906,7 @@
         <v>323.8258085181777</v>
       </c>
       <c r="N38" t="n">
-        <v>329.0656486494615</v>
+        <v>329.0656486494614</v>
       </c>
       <c r="O38" t="n">
         <v>310.7273608164821</v>
@@ -33915,19 +33915,19 @@
         <v>265.1986135253015</v>
       </c>
       <c r="Q38" t="n">
-        <v>199.1531142902472</v>
+        <v>199.1531142902471</v>
       </c>
       <c r="R38" t="n">
         <v>115.84588038601</v>
       </c>
       <c r="S38" t="n">
-        <v>42.02476268953024</v>
+        <v>42.02476268953023</v>
       </c>
       <c r="T38" t="n">
-        <v>8.072996101960221</v>
+        <v>8.07299610196022</v>
       </c>
       <c r="U38" t="n">
-        <v>0.147536193753699</v>
+        <v>0.1475361937536989</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.9867352864081421</v>
+        <v>0.986735286408142</v>
       </c>
       <c r="H39" t="n">
         <v>9.529785529257584</v>
@@ -33973,7 +33973,7 @@
         <v>33.97312279957858</v>
       </c>
       <c r="J39" t="n">
-        <v>93.22484563384997</v>
+        <v>93.22484563384995</v>
       </c>
       <c r="K39" t="n">
         <v>159.3361098231955</v>
@@ -33985,10 +33985,10 @@
         <v>250.0162170868349</v>
       </c>
       <c r="N39" t="n">
-        <v>256.633402406651</v>
+        <v>256.6334024066509</v>
       </c>
       <c r="O39" t="n">
-        <v>234.7694257972916</v>
+        <v>234.7694257972915</v>
       </c>
       <c r="P39" t="n">
         <v>188.4231618405162</v>
@@ -33997,7 +33997,7 @@
         <v>125.9558937527306</v>
       </c>
       <c r="R39" t="n">
-        <v>61.26414348418274</v>
+        <v>61.26414348418273</v>
       </c>
       <c r="S39" t="n">
         <v>18.32817516639684</v>
@@ -34043,7 +34043,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.827245717538031</v>
+        <v>0.8272457175380309</v>
       </c>
       <c r="H40" t="n">
         <v>7.354966470474499</v>
@@ -34052,10 +34052,10 @@
         <v>24.87753485105279</v>
       </c>
       <c r="J40" t="n">
-        <v>58.48627222993879</v>
+        <v>58.48627222993878</v>
       </c>
       <c r="K40" t="n">
-        <v>96.11091154669121</v>
+        <v>96.1109115466912</v>
       </c>
       <c r="L40" t="n">
         <v>122.9888769510633</v>
@@ -34073,7 +34073,7 @@
         <v>100.0516093284178</v>
       </c>
       <c r="Q40" t="n">
-        <v>69.27054822038913</v>
+        <v>69.27054822038912</v>
       </c>
       <c r="R40" t="n">
         <v>37.19597562675546</v>
@@ -34085,7 +34085,7 @@
         <v>3.534595338571586</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04512249368389265</v>
+        <v>0.04512249368389264</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,13 +34122,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.844202421921238</v>
+        <v>1.844202421921237</v>
       </c>
       <c r="H41" t="n">
-        <v>18.88693805350088</v>
+        <v>18.88693805350087</v>
       </c>
       <c r="I41" t="n">
-        <v>71.09861387111859</v>
+        <v>71.09861387111856</v>
       </c>
       <c r="J41" t="n">
         <v>156.5243753075378</v>
@@ -34137,34 +34137,34 @@
         <v>234.5894638274638</v>
       </c>
       <c r="L41" t="n">
-        <v>291.028973697336</v>
+        <v>291.0289736973359</v>
       </c>
       <c r="M41" t="n">
         <v>323.8258085181777</v>
       </c>
       <c r="N41" t="n">
-        <v>329.0656486494615</v>
+        <v>329.0656486494614</v>
       </c>
       <c r="O41" t="n">
-        <v>310.7273608164822</v>
+        <v>310.7273608164821</v>
       </c>
       <c r="P41" t="n">
-        <v>265.1986135253016</v>
+        <v>265.1986135253015</v>
       </c>
       <c r="Q41" t="n">
-        <v>199.1531142902472</v>
+        <v>199.1531142902471</v>
       </c>
       <c r="R41" t="n">
-        <v>115.8458803860101</v>
+        <v>115.84588038601</v>
       </c>
       <c r="S41" t="n">
-        <v>42.02476268953024</v>
+        <v>42.02476268953023</v>
       </c>
       <c r="T41" t="n">
-        <v>8.072996101960221</v>
+        <v>8.07299610196022</v>
       </c>
       <c r="U41" t="n">
-        <v>0.147536193753699</v>
+        <v>0.1475361937536989</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9867352864081422</v>
+        <v>0.986735286408142</v>
       </c>
       <c r="H42" t="n">
-        <v>9.529785529257586</v>
+        <v>9.529785529257584</v>
       </c>
       <c r="I42" t="n">
         <v>33.97312279957858</v>
       </c>
       <c r="J42" t="n">
-        <v>93.22484563384998</v>
+        <v>93.22484563384995</v>
       </c>
       <c r="K42" t="n">
         <v>159.3361098231955</v>
@@ -34222,10 +34222,10 @@
         <v>250.0162170868349</v>
       </c>
       <c r="N42" t="n">
-        <v>256.633402406651</v>
+        <v>256.6334024066509</v>
       </c>
       <c r="O42" t="n">
-        <v>234.7694257972916</v>
+        <v>234.7694257972915</v>
       </c>
       <c r="P42" t="n">
         <v>188.4231618405162</v>
@@ -34234,16 +34234,16 @@
         <v>125.9558937527306</v>
       </c>
       <c r="R42" t="n">
-        <v>61.26414348418275</v>
+        <v>61.26414348418273</v>
       </c>
       <c r="S42" t="n">
         <v>18.32817516639684</v>
       </c>
       <c r="T42" t="n">
-        <v>3.977235650039835</v>
+        <v>3.977235650039834</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06491679515843043</v>
+        <v>0.06491679515843042</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,25 +34280,25 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8272457175380311</v>
+        <v>0.8272457175380309</v>
       </c>
       <c r="H43" t="n">
-        <v>7.3549664704745</v>
+        <v>7.354966470474499</v>
       </c>
       <c r="I43" t="n">
-        <v>24.8775348510528</v>
+        <v>24.87753485105279</v>
       </c>
       <c r="J43" t="n">
-        <v>58.4862722299388</v>
+        <v>58.48627222993878</v>
       </c>
       <c r="K43" t="n">
-        <v>96.11091154669123</v>
+        <v>96.1109115466912</v>
       </c>
       <c r="L43" t="n">
         <v>122.9888769510633</v>
       </c>
       <c r="M43" t="n">
-        <v>129.6745264318934</v>
+        <v>129.6745264318933</v>
       </c>
       <c r="N43" t="n">
         <v>126.5911560301608</v>
@@ -34310,7 +34310,7 @@
         <v>100.0516093284178</v>
       </c>
       <c r="Q43" t="n">
-        <v>69.27054822038913</v>
+        <v>69.27054822038912</v>
       </c>
       <c r="R43" t="n">
         <v>37.19597562675546</v>
@@ -34319,10 +34319,10 @@
         <v>14.41663673200368</v>
       </c>
       <c r="T43" t="n">
-        <v>3.534595338571587</v>
+        <v>3.534595338571586</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04512249368389266</v>
+        <v>0.04512249368389264</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,13 +34359,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.844202421921238</v>
+        <v>1.844202421921237</v>
       </c>
       <c r="H44" t="n">
-        <v>18.88693805350088</v>
+        <v>18.88693805350087</v>
       </c>
       <c r="I44" t="n">
-        <v>71.09861387111859</v>
+        <v>71.09861387111856</v>
       </c>
       <c r="J44" t="n">
         <v>156.5243753075378</v>
@@ -34374,34 +34374,34 @@
         <v>234.5894638274638</v>
       </c>
       <c r="L44" t="n">
-        <v>291.028973697336</v>
+        <v>291.0289736973359</v>
       </c>
       <c r="M44" t="n">
         <v>323.8258085181777</v>
       </c>
       <c r="N44" t="n">
-        <v>329.0656486494615</v>
+        <v>329.0656486494614</v>
       </c>
       <c r="O44" t="n">
-        <v>310.7273608164822</v>
+        <v>310.7273608164821</v>
       </c>
       <c r="P44" t="n">
-        <v>265.1986135253016</v>
+        <v>265.1986135253015</v>
       </c>
       <c r="Q44" t="n">
-        <v>199.1531142902472</v>
+        <v>199.1531142902471</v>
       </c>
       <c r="R44" t="n">
-        <v>115.8458803860101</v>
+        <v>115.84588038601</v>
       </c>
       <c r="S44" t="n">
-        <v>42.02476268953024</v>
+        <v>42.02476268953023</v>
       </c>
       <c r="T44" t="n">
-        <v>8.072996101960221</v>
+        <v>8.07299610196022</v>
       </c>
       <c r="U44" t="n">
-        <v>0.147536193753699</v>
+        <v>0.1475361937536989</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.9867352864081422</v>
+        <v>0.986735286408142</v>
       </c>
       <c r="H45" t="n">
-        <v>9.529785529257586</v>
+        <v>9.529785529257584</v>
       </c>
       <c r="I45" t="n">
         <v>33.97312279957858</v>
       </c>
       <c r="J45" t="n">
-        <v>93.22484563384998</v>
+        <v>93.22484563384995</v>
       </c>
       <c r="K45" t="n">
         <v>159.3361098231955</v>
@@ -34459,10 +34459,10 @@
         <v>250.0162170868349</v>
       </c>
       <c r="N45" t="n">
-        <v>256.633402406651</v>
+        <v>256.6334024066509</v>
       </c>
       <c r="O45" t="n">
-        <v>234.7694257972916</v>
+        <v>234.7694257972915</v>
       </c>
       <c r="P45" t="n">
         <v>188.4231618405162</v>
@@ -34471,16 +34471,16 @@
         <v>125.9558937527306</v>
       </c>
       <c r="R45" t="n">
-        <v>61.26414348418275</v>
+        <v>61.26414348418273</v>
       </c>
       <c r="S45" t="n">
         <v>18.32817516639684</v>
       </c>
       <c r="T45" t="n">
-        <v>3.977235650039835</v>
+        <v>3.977235650039834</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06491679515843043</v>
+        <v>0.06491679515843042</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,25 +34517,25 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8272457175380311</v>
+        <v>0.8272457175380309</v>
       </c>
       <c r="H46" t="n">
-        <v>7.3549664704745</v>
+        <v>7.354966470474499</v>
       </c>
       <c r="I46" t="n">
-        <v>24.8775348510528</v>
+        <v>24.87753485105279</v>
       </c>
       <c r="J46" t="n">
-        <v>58.4862722299388</v>
+        <v>58.48627222993878</v>
       </c>
       <c r="K46" t="n">
-        <v>96.11091154669123</v>
+        <v>96.1109115466912</v>
       </c>
       <c r="L46" t="n">
         <v>122.9888769510633</v>
       </c>
       <c r="M46" t="n">
-        <v>129.6745264318934</v>
+        <v>129.6745264318933</v>
       </c>
       <c r="N46" t="n">
         <v>126.5911560301608</v>
@@ -34547,7 +34547,7 @@
         <v>100.0516093284178</v>
       </c>
       <c r="Q46" t="n">
-        <v>69.27054822038913</v>
+        <v>69.27054822038912</v>
       </c>
       <c r="R46" t="n">
         <v>37.19597562675546</v>
@@ -34556,10 +34556,10 @@
         <v>14.41663673200368</v>
       </c>
       <c r="T46" t="n">
-        <v>3.534595338571587</v>
+        <v>3.534595338571586</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04512249368389266</v>
+        <v>0.04512249368389264</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34783,19 +34783,19 @@
         <v>3.206918035433006</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1678556611008975</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>3.516869431124803</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>3.516869431124803</v>
       </c>
       <c r="O3" t="n">
         <v>3.516869431124803</v>
       </c>
       <c r="P3" t="n">
-        <v>3.516869431124803</v>
+        <v>0.1678556611008989</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -35017,16 +35017,16 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>3.206918035433006</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1678556611008975</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
+        <v>3.374773696533903</v>
+      </c>
+      <c r="N6" t="n">
         <v>3.516869431124803</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>3.516869431124803</v>
@@ -35257,16 +35257,16 @@
         <v>3.206918035433006</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1678556611008975</v>
+        <v>3.516869431124803</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>3.516869431124803</v>
       </c>
       <c r="N9" t="n">
-        <v>3.516869431124803</v>
+        <v>0.1678556611008989</v>
       </c>
       <c r="O9" t="n">
-        <v>3.516869431124803</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>3.516869431124803</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>45.22297841648431</v>
+        <v>45.22297841648434</v>
       </c>
       <c r="K11" t="n">
         <v>176.1260728987023</v>
@@ -35430,7 +35430,7 @@
         <v>191.6199215989935</v>
       </c>
       <c r="Q11" t="n">
-        <v>65.52028659103703</v>
+        <v>65.52028659103706</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35491,13 +35491,13 @@
         <v>20.18993200110155</v>
       </c>
       <c r="K12" t="n">
-        <v>162.5430278586285</v>
+        <v>57.49623210047223</v>
       </c>
       <c r="L12" t="n">
-        <v>89.16025580096372</v>
+        <v>285.5152633797349</v>
       </c>
       <c r="M12" t="n">
-        <v>378.3895770119725</v>
+        <v>378.3895770119726</v>
       </c>
       <c r="N12" t="n">
         <v>407.010372239607</v>
@@ -35509,7 +35509,7 @@
         <v>231.3382588737126</v>
       </c>
       <c r="Q12" t="n">
-        <v>91.30821182061453</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,22 +35570,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>7.884697169972924</v>
+        <v>7.884697169972938</v>
       </c>
       <c r="L13" t="n">
-        <v>63.71317848687985</v>
+        <v>63.71317848687987</v>
       </c>
       <c r="M13" t="n">
         <v>75.85933028513598</v>
       </c>
       <c r="N13" t="n">
-        <v>82.15267229778753</v>
+        <v>82.15267229778755</v>
       </c>
       <c r="O13" t="n">
-        <v>53.66144486003741</v>
+        <v>53.66144486003742</v>
       </c>
       <c r="P13" t="n">
-        <v>19.50769741595637</v>
+        <v>19.50769741595639</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,13 +35646,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>45.22297841648428</v>
+        <v>45.22297841648434</v>
       </c>
       <c r="K14" t="n">
         <v>176.1260728987023</v>
       </c>
       <c r="L14" t="n">
-        <v>274.0384144626433</v>
+        <v>274.0384144626434</v>
       </c>
       <c r="M14" t="n">
         <v>334.0881736842605</v>
@@ -35661,13 +35661,13 @@
         <v>332.5825180805863</v>
       </c>
       <c r="O14" t="n">
-        <v>276.7660603402833</v>
+        <v>276.7660603402834</v>
       </c>
       <c r="P14" t="n">
-        <v>191.6199215989934</v>
+        <v>191.6199215989935</v>
       </c>
       <c r="Q14" t="n">
-        <v>65.52028659103703</v>
+        <v>65.52028659103706</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>20.18993200110154</v>
+        <v>20.18993200110155</v>
       </c>
       <c r="K15" t="n">
         <v>162.5430278586285</v>
       </c>
       <c r="L15" t="n">
-        <v>285.5152633797348</v>
+        <v>285.5152633797349</v>
       </c>
       <c r="M15" t="n">
-        <v>182.0345694332017</v>
+        <v>378.3895770119726</v>
       </c>
       <c r="N15" t="n">
-        <v>407.010372239607</v>
+        <v>210.6553646608362</v>
       </c>
       <c r="O15" t="n">
-        <v>316.0247904663901</v>
+        <v>316.0247904663902</v>
       </c>
       <c r="P15" t="n">
         <v>231.3382588737126</v>
       </c>
       <c r="Q15" t="n">
-        <v>91.30821182061452</v>
+        <v>91.30821182061455</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>7.88469716997291</v>
+        <v>7.884697169972938</v>
       </c>
       <c r="L16" t="n">
-        <v>63.71317848687984</v>
+        <v>63.71317848687987</v>
       </c>
       <c r="M16" t="n">
-        <v>75.85933028513595</v>
+        <v>75.85933028513598</v>
       </c>
       <c r="N16" t="n">
-        <v>82.15267229778752</v>
+        <v>82.15267229778755</v>
       </c>
       <c r="O16" t="n">
-        <v>53.66144486003739</v>
+        <v>53.66144486003742</v>
       </c>
       <c r="P16" t="n">
-        <v>19.50769741595637</v>
+        <v>19.50769741595639</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>45.22297841648428</v>
+        <v>45.22297841648434</v>
       </c>
       <c r="K17" t="n">
-        <v>176.1260728987022</v>
+        <v>176.1260728987023</v>
       </c>
       <c r="L17" t="n">
-        <v>274.0384144626433</v>
+        <v>274.0384144626434</v>
       </c>
       <c r="M17" t="n">
-        <v>334.0881736842604</v>
+        <v>334.0881736842605</v>
       </c>
       <c r="N17" t="n">
-        <v>332.5825180805862</v>
+        <v>332.5825180805863</v>
       </c>
       <c r="O17" t="n">
-        <v>276.7660603402833</v>
+        <v>276.7660603402834</v>
       </c>
       <c r="P17" t="n">
-        <v>191.6199215989934</v>
+        <v>191.6199215989935</v>
       </c>
       <c r="Q17" t="n">
-        <v>65.52028659103701</v>
+        <v>65.52028659103706</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>20.18993200110152</v>
+        <v>20.18993200110155</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>285.5152633797348</v>
+        <v>285.5152633797349</v>
       </c>
       <c r="M18" t="n">
-        <v>378.3895770119725</v>
+        <v>378.3895770119726</v>
       </c>
       <c r="N18" t="n">
-        <v>407.0103722396069</v>
+        <v>407.010372239607</v>
       </c>
       <c r="O18" t="n">
-        <v>316.0247904663901</v>
+        <v>316.0247904663902</v>
       </c>
       <c r="P18" t="n">
-        <v>197.5262791535702</v>
+        <v>231.3382588737126</v>
       </c>
       <c r="Q18" t="n">
-        <v>91.3082118206145</v>
+        <v>57.49623210047232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>7.884697169972895</v>
+        <v>7.884697169972938</v>
       </c>
       <c r="L19" t="n">
-        <v>63.71317848687983</v>
+        <v>63.71317848687987</v>
       </c>
       <c r="M19" t="n">
-        <v>75.85933028513595</v>
+        <v>75.85933028513598</v>
       </c>
       <c r="N19" t="n">
-        <v>82.1526722977875</v>
+        <v>82.15267229778755</v>
       </c>
       <c r="O19" t="n">
-        <v>53.66144486003738</v>
+        <v>53.66144486003742</v>
       </c>
       <c r="P19" t="n">
-        <v>19.50769741595636</v>
+        <v>19.50769741595639</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>45.22297841648428</v>
+        <v>45.22297841648431</v>
       </c>
       <c r="K20" t="n">
-        <v>176.1260728987022</v>
+        <v>176.1260728987023</v>
       </c>
       <c r="L20" t="n">
-        <v>274.0384144626433</v>
+        <v>274.0384144626434</v>
       </c>
       <c r="M20" t="n">
-        <v>334.0881736842604</v>
+        <v>334.0881736842605</v>
       </c>
       <c r="N20" t="n">
-        <v>332.5825180805862</v>
+        <v>332.5825180805863</v>
       </c>
       <c r="O20" t="n">
-        <v>276.7660603402833</v>
+        <v>276.7660603402834</v>
       </c>
       <c r="P20" t="n">
-        <v>191.6199215989934</v>
+        <v>191.6199215989935</v>
       </c>
       <c r="Q20" t="n">
-        <v>65.52028659103701</v>
+        <v>65.52028659103703</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>20.18993200110155</v>
       </c>
       <c r="K21" t="n">
-        <v>162.5430278586285</v>
+        <v>57.49623210047196</v>
       </c>
       <c r="L21" t="n">
         <v>285.5152633797348</v>
@@ -36211,10 +36211,10 @@
         <v>378.3895770119725</v>
       </c>
       <c r="N21" t="n">
-        <v>322.1535084825523</v>
+        <v>407.010372239607</v>
       </c>
       <c r="O21" t="n">
-        <v>316.0247904663901</v>
+        <v>316.0247904663902</v>
       </c>
       <c r="P21" t="n">
         <v>231.3382588737126</v>
@@ -36281,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>7.884697169972895</v>
+        <v>7.884697169972924</v>
       </c>
       <c r="L22" t="n">
-        <v>63.71317848687983</v>
+        <v>63.71317848687985</v>
       </c>
       <c r="M22" t="n">
-        <v>75.85933028513595</v>
+        <v>75.85933028513598</v>
       </c>
       <c r="N22" t="n">
-        <v>82.1526722977875</v>
+        <v>82.15267229778753</v>
       </c>
       <c r="O22" t="n">
-        <v>53.66144486003738</v>
+        <v>53.66144486003741</v>
       </c>
       <c r="P22" t="n">
-        <v>19.50769741595636</v>
+        <v>19.50769741595637</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36357,13 +36357,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>45.22297841648428</v>
+        <v>45.22297841648431</v>
       </c>
       <c r="K23" t="n">
         <v>176.1260728987023</v>
       </c>
       <c r="L23" t="n">
-        <v>274.0384144626433</v>
+        <v>274.0384144626434</v>
       </c>
       <c r="M23" t="n">
         <v>334.0881736842605</v>
@@ -36372,10 +36372,10 @@
         <v>332.5825180805863</v>
       </c>
       <c r="O23" t="n">
-        <v>276.7660603402833</v>
+        <v>276.7660603402834</v>
       </c>
       <c r="P23" t="n">
-        <v>191.6199215989934</v>
+        <v>191.6199215989935</v>
       </c>
       <c r="Q23" t="n">
         <v>65.52028659103703</v>
@@ -36436,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>20.18993200110154</v>
+        <v>20.18993200110155</v>
       </c>
       <c r="K24" t="n">
-        <v>162.5430278586285</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>285.5152633797348</v>
@@ -36451,13 +36451,13 @@
         <v>407.010372239607</v>
       </c>
       <c r="O24" t="n">
-        <v>210.9779947082335</v>
+        <v>316.0247904663902</v>
       </c>
       <c r="P24" t="n">
-        <v>231.3382588737126</v>
+        <v>197.52627915357</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>91.30821182061453</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36518,19 +36518,19 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>7.88469716997291</v>
+        <v>7.884697169972924</v>
       </c>
       <c r="L25" t="n">
-        <v>63.71317848687984</v>
+        <v>63.71317848687985</v>
       </c>
       <c r="M25" t="n">
-        <v>75.85933028513595</v>
+        <v>75.85933028513598</v>
       </c>
       <c r="N25" t="n">
-        <v>82.15267229778752</v>
+        <v>82.15267229778753</v>
       </c>
       <c r="O25" t="n">
-        <v>53.66144486003739</v>
+        <v>53.66144486003741</v>
       </c>
       <c r="P25" t="n">
         <v>19.50769741595637</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>20.18993200110154</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>162.5430278586285</v>
@@ -36685,7 +36685,7 @@
         <v>378.3895770119725</v>
       </c>
       <c r="N27" t="n">
-        <v>301.96357648145</v>
+        <v>322.1535084825521</v>
       </c>
       <c r="O27" t="n">
         <v>316.0247904663901</v>
@@ -36913,13 +36913,13 @@
         <v>20.18993200110154</v>
       </c>
       <c r="K30" t="n">
-        <v>162.5430278586285</v>
+        <v>57.49623210047197</v>
       </c>
       <c r="L30" t="n">
         <v>285.5152633797348</v>
       </c>
       <c r="M30" t="n">
-        <v>273.342781253816</v>
+        <v>378.3895770119725</v>
       </c>
       <c r="N30" t="n">
         <v>407.010372239607</v>
@@ -37150,7 +37150,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>77.68616410157351</v>
       </c>
       <c r="L33" t="n">
         <v>285.5152633797348</v>
@@ -37168,7 +37168,7 @@
         <v>231.3382588737126</v>
       </c>
       <c r="Q33" t="n">
-        <v>77.68616410157388</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37384,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>20.18993200110154</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>162.5430278586285</v>
+        <v>77.68616410157397</v>
       </c>
       <c r="L36" t="n">
         <v>285.5152633797348</v>
@@ -37396,7 +37396,7 @@
         <v>378.3895770119725</v>
       </c>
       <c r="N36" t="n">
-        <v>210.6553646608357</v>
+        <v>407.010372239607</v>
       </c>
       <c r="O36" t="n">
         <v>316.0247904663901</v>
@@ -37405,7 +37405,7 @@
         <v>231.3382588737126</v>
       </c>
       <c r="Q36" t="n">
-        <v>91.30821182061452</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37545,16 +37545,16 @@
         <v>45.22297841648428</v>
       </c>
       <c r="K38" t="n">
-        <v>176.1260728987023</v>
+        <v>176.1260728987022</v>
       </c>
       <c r="L38" t="n">
         <v>274.0384144626433</v>
       </c>
       <c r="M38" t="n">
-        <v>334.0881736842605</v>
+        <v>334.0881736842604</v>
       </c>
       <c r="N38" t="n">
-        <v>332.5825180805863</v>
+        <v>332.5825180805862</v>
       </c>
       <c r="O38" t="n">
         <v>276.7660603402833</v>
@@ -37563,7 +37563,7 @@
         <v>191.6199215989934</v>
       </c>
       <c r="Q38" t="n">
-        <v>65.52028659103703</v>
+        <v>65.52028659103701</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37621,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>20.18993200110154</v>
+        <v>20.18993200110152</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>162.5430278586285</v>
       </c>
       <c r="L39" t="n">
         <v>285.5152633797348</v>
@@ -37633,7 +37633,7 @@
         <v>378.3895770119725</v>
       </c>
       <c r="N39" t="n">
-        <v>407.010372239607</v>
+        <v>301.9635764814507</v>
       </c>
       <c r="O39" t="n">
         <v>316.0247904663901</v>
@@ -37642,7 +37642,7 @@
         <v>231.3382588737126</v>
       </c>
       <c r="Q39" t="n">
-        <v>57.49623210047163</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37703,22 +37703,22 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>7.88469716997291</v>
+        <v>7.884697169972895</v>
       </c>
       <c r="L40" t="n">
-        <v>63.71317848687984</v>
+        <v>63.71317848687983</v>
       </c>
       <c r="M40" t="n">
         <v>75.85933028513595</v>
       </c>
       <c r="N40" t="n">
-        <v>82.15267229778752</v>
+        <v>82.1526722977875</v>
       </c>
       <c r="O40" t="n">
-        <v>53.66144486003739</v>
+        <v>53.66144486003738</v>
       </c>
       <c r="P40" t="n">
-        <v>19.50769741595637</v>
+        <v>19.50769741595636</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37779,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>45.22297841648431</v>
+        <v>45.22297841648457</v>
       </c>
       <c r="K41" t="n">
-        <v>176.1260728987023</v>
+        <v>176.1260728987022</v>
       </c>
       <c r="L41" t="n">
-        <v>274.0384144626434</v>
+        <v>274.0384144626433</v>
       </c>
       <c r="M41" t="n">
-        <v>334.0881736842605</v>
+        <v>334.0881736842604</v>
       </c>
       <c r="N41" t="n">
-        <v>332.5825180805863</v>
+        <v>332.5825180805862</v>
       </c>
       <c r="O41" t="n">
-        <v>276.7660603402834</v>
+        <v>276.7660603402833</v>
       </c>
       <c r="P41" t="n">
-        <v>191.6199215989935</v>
+        <v>191.6199215989934</v>
       </c>
       <c r="Q41" t="n">
-        <v>65.52028659103703</v>
+        <v>65.52028659103701</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37861,7 +37861,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>162.5430278586285</v>
+        <v>77.6861641015734</v>
       </c>
       <c r="L42" t="n">
         <v>285.5152633797348</v>
@@ -37870,10 +37870,10 @@
         <v>378.3895770119725</v>
       </c>
       <c r="N42" t="n">
-        <v>322.1535084825523</v>
+        <v>407.0103722396069</v>
       </c>
       <c r="O42" t="n">
-        <v>316.0247904663902</v>
+        <v>316.0247904663901</v>
       </c>
       <c r="P42" t="n">
         <v>231.3382588737126</v>
@@ -37940,22 +37940,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>7.884697169972924</v>
+        <v>7.884697169972895</v>
       </c>
       <c r="L43" t="n">
-        <v>63.71317848687985</v>
+        <v>63.71317848687983</v>
       </c>
       <c r="M43" t="n">
-        <v>75.85933028513598</v>
+        <v>75.85933028513595</v>
       </c>
       <c r="N43" t="n">
-        <v>82.15267229778753</v>
+        <v>82.1526722977875</v>
       </c>
       <c r="O43" t="n">
-        <v>53.66144486003741</v>
+        <v>53.66144486003738</v>
       </c>
       <c r="P43" t="n">
-        <v>19.50769741595637</v>
+        <v>19.50769741595636</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38016,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>45.22297841648438</v>
+        <v>45.22297841648428</v>
       </c>
       <c r="K44" t="n">
-        <v>176.1260728987023</v>
+        <v>176.1260728987022</v>
       </c>
       <c r="L44" t="n">
-        <v>274.0384144626434</v>
+        <v>274.0384144626433</v>
       </c>
       <c r="M44" t="n">
-        <v>334.0881736842605</v>
+        <v>334.0881736842604</v>
       </c>
       <c r="N44" t="n">
-        <v>332.5825180805863</v>
+        <v>332.5825180805862</v>
       </c>
       <c r="O44" t="n">
-        <v>276.7660603402834</v>
+        <v>276.7660603402833</v>
       </c>
       <c r="P44" t="n">
-        <v>191.6199215989935</v>
+        <v>191.6199215989934</v>
       </c>
       <c r="Q44" t="n">
-        <v>65.52028659103703</v>
+        <v>65.52028659103701</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38098,7 +38098,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>77.68616410157374</v>
+        <v>77.6861641015734</v>
       </c>
       <c r="L45" t="n">
         <v>285.5152633797348</v>
@@ -38107,10 +38107,10 @@
         <v>378.3895770119725</v>
       </c>
       <c r="N45" t="n">
-        <v>407.010372239607</v>
+        <v>407.0103722396069</v>
       </c>
       <c r="O45" t="n">
-        <v>316.0247904663902</v>
+        <v>316.0247904663901</v>
       </c>
       <c r="P45" t="n">
         <v>231.3382588737126</v>
@@ -38177,22 +38177,22 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>7.884697169972924</v>
+        <v>7.884697169972895</v>
       </c>
       <c r="L46" t="n">
-        <v>63.71317848687985</v>
+        <v>63.71317848687983</v>
       </c>
       <c r="M46" t="n">
-        <v>75.85933028513598</v>
+        <v>75.85933028513595</v>
       </c>
       <c r="N46" t="n">
-        <v>82.15267229778753</v>
+        <v>82.1526722977875</v>
       </c>
       <c r="O46" t="n">
-        <v>53.66144486003741</v>
+        <v>53.66144486003738</v>
       </c>
       <c r="P46" t="n">
-        <v>19.50769741595637</v>
+        <v>19.50769741595636</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
